--- a/src/state/Domain/verbos.xlsx
+++ b/src/state/Domain/verbos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12000"/>
+    <workbookView windowWidth="18040" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="252">
   <si>
     <t>Infinitvo</t>
   </si>
@@ -122,6 +122,1458 @@
 agradecimos,
 agradecisteis,
 agradecieron</t>
+  </si>
+  <si>
+    <t>Aparecer</t>
+  </si>
+  <si>
+    <t>появляться</t>
+  </si>
+  <si>
+    <t>aparezco,
+apareces,
+aparece,
+aparecemos,
+aparecéis,
+aparecen</t>
+  </si>
+  <si>
+    <t>he aparecido,
+has aparecido,
+ha aparecido,
+hemos aparecido,
+habéis aparecido,
+han aparecido</t>
+  </si>
+  <si>
+    <t>apareceré,
+aparecerás,
+aparecerá,
+apareceremos,
+apareceréis,
+aparecerán</t>
+  </si>
+  <si>
+    <t>aparecí,
+apareciste,
+apareció,
+aparecimos,
+aparecisteis,
+aparecieron</t>
+  </si>
+  <si>
+    <t>Aprender</t>
+  </si>
+  <si>
+    <t>Учить</t>
+  </si>
+  <si>
+    <t>aprendo,
+aprendes,
+aprende,
+aprendemos,
+aprendéis,
+aprenden</t>
+  </si>
+  <si>
+    <t>he aprendido,
+has aprendido,
+ha aprendido,
+hemos aprendido,
+habéis aprendido,
+han aprendido</t>
+  </si>
+  <si>
+    <t>aprenderé,
+aprenderás,
+aprenderá,
+aprenderemos,
+aprenderéis,
+aprenderán</t>
+  </si>
+  <si>
+    <t>aprendí,
+aprendiste,
+aprendió,
+aprendimos,
+aprendisteis,
+aprendieron</t>
+  </si>
+  <si>
+    <t>Alojar</t>
+  </si>
+  <si>
+    <t>Размещать</t>
+  </si>
+  <si>
+    <t>alojo,
+alojas,
+aloja,
+alojamos,
+alojáis,
+alojan</t>
+  </si>
+  <si>
+    <t>he alojado,
+has alojado,
+ha alojado,
+hemos alojado,
+habéis alojado,
+han alojado</t>
+  </si>
+  <si>
+    <t>alojaré,
+alojarás,
+alojará,
+alojaremos,
+alojaréis,
+alojarán</t>
+  </si>
+  <si>
+    <t>alojé,
+alojaste,
+alojó,
+alojamos,
+alojasteis,
+alojaron</t>
+  </si>
+  <si>
+    <t>Comer</t>
+  </si>
+  <si>
+    <t>Есть,обедать</t>
+  </si>
+  <si>
+    <t>como,
+comes,
+come,
+comemos,
+coméis,
+comen</t>
+  </si>
+  <si>
+    <t>he comido,
+has comido,
+ha comido,
+hemos comido,
+habéis comido,
+han comido</t>
+  </si>
+  <si>
+    <t>comeré,
+comerás,
+comerá,
+comeremos,
+comeréis,
+comerán</t>
+  </si>
+  <si>
+    <t>comí,
+comiste,
+comió,
+comimos,
+comisteis,
+comieron</t>
+  </si>
+  <si>
+    <t>Conocer</t>
+  </si>
+  <si>
+    <t>знать,иметь знания,знакомить</t>
+  </si>
+  <si>
+    <t>conozco,
+conoces,
+conoce,
+conocemos,
+conocéis,
+conocen</t>
+  </si>
+  <si>
+    <t>he conocido,
+has conocido,
+ha conocido,
+hemos conocido,
+habéis conocido,
+han conocido</t>
+  </si>
+  <si>
+    <t>conoceré,
+conocerás,
+conocerá,
+conoceremos,
+conoceréis,
+conocerán</t>
+  </si>
+  <si>
+    <t>conocí,
+conociste,
+conoció,
+conocimos,
+conocisteis,
+conocieron</t>
+  </si>
+  <si>
+    <t>Conseguir</t>
+  </si>
+  <si>
+    <t>добиваться,достигать</t>
+  </si>
+  <si>
+    <t>consigo,
+consigues,
+consigue,
+conseguimos,
+conseguís,
+consiguen</t>
+  </si>
+  <si>
+    <t>he conseguido,
+has conseguido,
+ha conseguido,
+hemos conseguido,
+habéis conseguido,
+han conseguido</t>
+  </si>
+  <si>
+    <t>conseguiré,
+conseguirás,
+conseguirá,
+conseguiremos,
+conseguiréis,
+conseguirán</t>
+  </si>
+  <si>
+    <t>conseguí,
+conseguiste,
+consiguió,
+conseguimos,
+conseguisteis,
+consiguieron</t>
+  </si>
+  <si>
+    <t>Construir</t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
+    <t>construyo,
+construyes,
+construye,
+construimos,
+construís,
+construyen</t>
+  </si>
+  <si>
+    <t>he construido,
+has construido,
+ha construido,
+hemos construido,
+habéis construido,
+han construido</t>
+  </si>
+  <si>
+    <t>construiré,
+construirás,
+construirá,
+construiremos,
+construiréis,
+construirán</t>
+  </si>
+  <si>
+    <t>construí,
+construiste,
+construyó,
+construimos,
+construisteis,
+construyeron</t>
+  </si>
+  <si>
+    <t>Conectar</t>
+  </si>
+  <si>
+    <t>Соединять</t>
+  </si>
+  <si>
+    <t>conecto,
+conectas,
+conecta,
+conectamos,
+conectáis,
+conectan</t>
+  </si>
+  <si>
+    <t>he conectado,
+has conectado,
+ha conectado,
+hemos conectado,
+habéis conectado,
+han conectado</t>
+  </si>
+  <si>
+    <t>conectaré,
+conectarás,
+conectará,
+conectaremos,
+conectaréis,
+conectarán</t>
+  </si>
+  <si>
+    <t>conecté,
+conectaste,
+conectó,
+conectamos,
+conectasteis,
+conectaron</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Защищать</t>
+  </si>
+  <si>
+    <t>defiendo,
+defiendes,
+defiende,
+defendemos,
+defendéis,
+defienden</t>
+  </si>
+  <si>
+    <t>he defendido,
+has defendido,
+ha defendido,
+hemos defendido,
+habéis defendido,
+han defendido</t>
+  </si>
+  <si>
+    <t>defenderé,
+defenderás,
+defenderá,
+defenderemos,
+defenderéis,
+defenderán</t>
+  </si>
+  <si>
+    <t>defendí,
+defendiste,
+defendió,
+defendimos,
+defendisteis,
+defendieron</t>
+  </si>
+  <si>
+    <t>Deletrear</t>
+  </si>
+  <si>
+    <t>Разгадывать,расшифровывать</t>
+  </si>
+  <si>
+    <t>deletreo,
+deletreas,
+deletrea,
+deletreamos,
+deletreáis,
+deletrean</t>
+  </si>
+  <si>
+    <t>he deletreado,
+has deletreado,
+ha deletreado,
+hemos deletreado,
+habéis deletreado,
+han deletreado</t>
+  </si>
+  <si>
+    <t>deletrearé,
+deletrearás,
+deletreará,
+deletrearemos,
+deletrearéis,
+deletrearán</t>
+  </si>
+  <si>
+    <t>deletreé,
+deletreaste,
+deletreó,
+deletreamos,
+deletreasteis,
+deletrearon</t>
+  </si>
+  <si>
+    <t>despedir</t>
+  </si>
+  <si>
+    <t>Увольнять,прощать</t>
+  </si>
+  <si>
+    <t>despido,
+despides,
+despide,
+despedimos,
+despedís,
+despiden</t>
+  </si>
+  <si>
+    <t>he despedido,
+has despedido,
+ha despedido,
+hemos despedido,
+habéis despedido,
+han despedido</t>
+  </si>
+  <si>
+    <t>despediré,
+despedirás,
+despedirá,
+despediremos,
+despediréis,
+despedirán</t>
+  </si>
+  <si>
+    <t>despedí,
+despediste,
+despidió,
+despedimos,
+despedisteis,
+despidieron</t>
+  </si>
+  <si>
+    <t>despertar</t>
+  </si>
+  <si>
+    <t>Просыпаться</t>
+  </si>
+  <si>
+    <t>despierto,
+despiertas,
+despierta,
+despertamos,
+despertáis,
+despiertan</t>
+  </si>
+  <si>
+    <t>he despertado,
+has despertado,
+ha despertado,
+hemos despertado,
+habéis despertado,
+han despertado</t>
+  </si>
+  <si>
+    <t>despertaré,
+despertarás,
+despertará,
+despertaremos,
+despertaréis,
+despertarán</t>
+  </si>
+  <si>
+    <t>desperté,
+despertaste,
+despertó,
+despertamos,
+despertasteis,
+despertaron</t>
+  </si>
+  <si>
+    <t>Destruir</t>
+  </si>
+  <si>
+    <t>Разрушать</t>
+  </si>
+  <si>
+    <t>destruyo,
+destruyes,
+destruye,
+destruimos,
+destruís,
+destruyen</t>
+  </si>
+  <si>
+    <t>he destruido,
+has destruido,
+ha destruido,
+hemos destruido,
+habéis destruido,
+han destruido</t>
+  </si>
+  <si>
+    <t>destruiré,
+destruirás,
+destruirá,
+destruiremos,
+destruiréis,
+destruirán</t>
+  </si>
+  <si>
+    <t>destruí,
+destruiste,
+destruyó,
+destruimos,
+destruisteis,
+destruyeron</t>
+  </si>
+  <si>
+    <t>Dividir</t>
+  </si>
+  <si>
+    <t>Делить,разделять</t>
+  </si>
+  <si>
+    <t>divido,
+divides,
+divide,
+dividimos,
+dividís,
+dividen</t>
+  </si>
+  <si>
+    <t>he dividido,
+has dividido,
+ha dividido,
+hemos dividido,
+habéis dividido,
+han dividido</t>
+  </si>
+  <si>
+    <t>dividiré,
+dividirás,
+dividirá,
+dividiremos,
+dividiréis,
+dividirán</t>
+  </si>
+  <si>
+    <t>dividí,
+dividiste,
+dividió,
+dividimos,
+dividisteis,
+dividieron</t>
+  </si>
+  <si>
+    <t>Divertir</t>
+  </si>
+  <si>
+    <t>Развлекать</t>
+  </si>
+  <si>
+    <t>divierto,
+diviertes,
+divierte,
+divertimos,
+divertís,
+divierten</t>
+  </si>
+  <si>
+    <t>he divertido,
+has divertido,
+ha divertido,
+hemos divertido,
+habéis divertido,
+han divertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divertiré,
+divertirás,
+divertirá,
+divertiremos,
+divertiréis,
+divertirán
+</t>
+  </si>
+  <si>
+    <t>divertí,
+divertiste,
+divirtió,
+divertimos,
+divertisteis,
+divirtieron</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Засыпать</t>
+  </si>
+  <si>
+    <t>duermo,
+duermes,
+duerme,
+dormimos,
+dormís,
+duermen</t>
+  </si>
+  <si>
+    <t>he dormido,
+has dormido,
+ha dormido,
+hemos dormido,
+habéis dormido,
+han dormido</t>
+  </si>
+  <si>
+    <t>dormiré,
+dormirás,
+dormirá,
+dormiremos,
+dormiréis,
+dormirán</t>
+  </si>
+  <si>
+    <t>dormí,
+dormiste,
+durmió,
+dormimos,
+dormisteis,
+durmieron</t>
+  </si>
+  <si>
+    <t>Empezar</t>
+  </si>
+  <si>
+    <t>Начинать</t>
+  </si>
+  <si>
+    <t>empiezo,
+empiezas,
+empieza,
+empezamos,
+empezáis,
+empiezan</t>
+  </si>
+  <si>
+    <t>he empezado,
+has empezado,
+ha empezado,
+hemos empezado,
+habéis empezado,
+han empezado</t>
+  </si>
+  <si>
+    <t>empezaré,
+empezarás,
+empezará,
+empezaremos,
+empezaréis,
+empezarán</t>
+  </si>
+  <si>
+    <t>empecé,
+empezaste,
+empezó,
+empezamos,
+empezasteis,
+empezaron</t>
+  </si>
+  <si>
+    <t>Escuchar</t>
+  </si>
+  <si>
+    <t>Слушать</t>
+  </si>
+  <si>
+    <t>escucho,
+escuchas,
+escucha,
+escuchamos,
+escucháis,
+escuchan</t>
+  </si>
+  <si>
+    <t>he escuchado,
+has escuchado,
+ha escuchado,
+hemos escuchado,
+habéis escuchado,
+han escuchado</t>
+  </si>
+  <si>
+    <t>escucharé,
+escucharás,
+escuchará,
+escucharemos,
+escucharéis,
+escucharán</t>
+  </si>
+  <si>
+    <t>escuché,
+escuchaste,
+escuchó,
+escuchamos,
+escuchasteis,
+escucharon</t>
+  </si>
+  <si>
+    <t>Oir</t>
+  </si>
+  <si>
+    <t>Слышать</t>
+  </si>
+  <si>
+    <t>oigo,
+oyes,
+oye,
+oímos,
+oís,
+oyen</t>
+  </si>
+  <si>
+    <t>he oído,
+has oído,
+ha oído,
+hemos oído,
+habéis oído,
+han oído</t>
+  </si>
+  <si>
+    <t>oiré,
+oirás,
+oirá,
+oiremos,
+oiréis,
+oirán</t>
+  </si>
+  <si>
+    <t>oí,
+oíste,
+oyó,
+oímos,
+oísteis,
+oyeron</t>
+  </si>
+  <si>
+    <t>Fregar</t>
+  </si>
+  <si>
+    <t>Мыть,чистить</t>
+  </si>
+  <si>
+    <t>friego,
+friegas,
+friega,
+fregramos,
+fregráis,
+friegan</t>
+  </si>
+  <si>
+    <t>he fregado,
+has fregado,
+ha fregado,
+hemos fregado,
+habéis fregado,
+han fregado</t>
+  </si>
+  <si>
+    <t>fregaré,
+fregarás,
+fregará,
+fregaremos,
+fregaréis,
+fregarán</t>
+  </si>
+  <si>
+    <t>fregué,
+fregaste,
+fregó,
+fregamos,
+fregasteis,
+fregaron</t>
+  </si>
+  <si>
+    <t>Huir</t>
+  </si>
+  <si>
+    <t>Убегать</t>
+  </si>
+  <si>
+    <t>huyo,
+huyes,
+huye,
+huimos,
+huís,
+huyen</t>
+  </si>
+  <si>
+    <t>he huido,
+has huido,
+ha huido,
+hemos huido,
+habéis huido,
+han huido</t>
+  </si>
+  <si>
+    <t>huiré,
+huirás,
+huirá,
+huiremos,
+huiréis,
+huirán</t>
+  </si>
+  <si>
+    <t>huí,
+huiste,
+huyó,
+huimos,
+huisteis,
+huyeron</t>
+  </si>
+  <si>
+    <t>Localizar</t>
+  </si>
+  <si>
+    <t>Указать,определить</t>
+  </si>
+  <si>
+    <t>localizo,
+localizas,
+localiza,
+localizamos,
+localizáis,
+localizan</t>
+  </si>
+  <si>
+    <t>he localizado,
+has localizado,
+ha localizado,
+hemos localizado,
+habéis localizado,
+han localizado</t>
+  </si>
+  <si>
+    <t>localizaré,
+localizarás,
+localizará,
+localizaremos,
+localizaréis,
+localizarán</t>
+  </si>
+  <si>
+    <t>localicé,
+localizaste,
+localizó,
+localizamos,
+localizasteis,
+localizaron</t>
+  </si>
+  <si>
+    <t>Morir</t>
+  </si>
+  <si>
+    <t>Умирать</t>
+  </si>
+  <si>
+    <t>muero,
+mueres,
+muere,
+morimos,
+morís,
+mueren</t>
+  </si>
+  <si>
+    <t>he muerto,
+has muerto,
+ha muerto,
+hemos muerto,
+habéis muerto,
+han muerto</t>
+  </si>
+  <si>
+    <t>moriré,
+morirás,
+morirá,
+moriremos,
+moriréis,
+morirán</t>
+  </si>
+  <si>
+    <t>morí,
+moriste,
+murió,
+morimos,
+moristeis,
+murieron</t>
+  </si>
+  <si>
+    <t>Multiplicar</t>
+  </si>
+  <si>
+    <t>Умножать</t>
+  </si>
+  <si>
+    <t>multiplico,
+multiplicas,
+multiplica,
+multiplicamos,
+multiplicáis,
+multiplican</t>
+  </si>
+  <si>
+    <t>he multiplicado,
+has multiplicado,
+ha multiplicado,
+hemos multiplicado,
+habéis multiplicado,
+han multiplicado</t>
+  </si>
+  <si>
+    <t>multiplicaré,
+multiplicarás,
+multiplicará,
+multiplicaremos,
+multiplicaréis,
+multiplicarán</t>
+  </si>
+  <si>
+    <t>multipliqué,
+multiplicaste,
+multiplicó,
+multiplicamos,
+multiplicasteis,
+multiplicaron</t>
+  </si>
+  <si>
+    <t>Nacer</t>
+  </si>
+  <si>
+    <t>Рождать</t>
+  </si>
+  <si>
+    <t>nazco,
+naces,
+nace,
+nacemos,
+nacéis,
+nacen</t>
+  </si>
+  <si>
+    <t>he nacido,
+has nacido,
+ha nacido,
+hemos nacido,
+habéis nacido,
+han nacido</t>
+  </si>
+  <si>
+    <t>naceré,
+nacerás,
+nacerá,
+naceremos,
+naceréis,
+nacerán</t>
+  </si>
+  <si>
+    <t>nací,
+naciste,
+nació,
+nacimos,
+nacisteis,
+nacieron</t>
+  </si>
+  <si>
+    <t>Presentar</t>
+  </si>
+  <si>
+    <t>Поздороваться,представиться</t>
+  </si>
+  <si>
+    <t>presento,
+presentas,
+presenta,
+presentamos,
+presentáis,
+presentan</t>
+  </si>
+  <si>
+    <t>he presentado,
+has presentado,
+ha presentado,
+hemos presentado,
+habéis presentado,
+han presentado</t>
+  </si>
+  <si>
+    <t>presentaré,
+presentarás,
+presentará,
+presentaremos,
+presentaréis,
+presentarán</t>
+  </si>
+  <si>
+    <t>presenté,
+presentaste,
+presentó,
+presentamos,
+presentasteis,
+presentaron</t>
+  </si>
+  <si>
+    <t>Preferir</t>
+  </si>
+  <si>
+    <t>Предпочитать</t>
+  </si>
+  <si>
+    <t>prefiero,
+prefieres,
+prefiere,
+preferimos,
+preferís,
+prefieren</t>
+  </si>
+  <si>
+    <t>he preferido,
+has preferido,
+ha preferido,
+hemos preferido,
+habéis preferido,
+han preferido</t>
+  </si>
+  <si>
+    <t>preferiré,
+preferirás,
+preferirá,
+preferiremos,
+preferiréis,
+preferirán</t>
+  </si>
+  <si>
+    <t>preferí,
+preferiste,
+prefirió,
+preferimos,
+preferisteis,
+prefirieron</t>
+  </si>
+  <si>
+    <t>Recordar</t>
+  </si>
+  <si>
+    <t>Помнить,Вспоминать</t>
+  </si>
+  <si>
+    <t>recuerdo,
+recuerdas,
+recuerda,
+recordamos,
+recordáis,
+recuerdan</t>
+  </si>
+  <si>
+    <t>he recordado,
+has recordado,
+ha recordado,
+hemos recordado,
+habéis recordado,
+han recordado</t>
+  </si>
+  <si>
+    <t>recordaré,
+recordarás,
+recordará,
+recordaremos,
+recordaréis,
+recordarán</t>
+  </si>
+  <si>
+    <t>recordé,
+recordaste,
+recordó,
+recordamos,
+recordasteis,
+recordaron</t>
+  </si>
+  <si>
+    <t>Regar</t>
+  </si>
+  <si>
+    <t>Поливать,орошать</t>
+  </si>
+  <si>
+    <t>riego,
+riegas,
+riega,
+regamos,
+regáis,
+riegan</t>
+  </si>
+  <si>
+    <t>he regado,
+has regado,
+ha regado,
+hemos regado,
+habéis regado,
+han regado</t>
+  </si>
+  <si>
+    <t>regaré,
+regarás,
+regará,
+regaremos,
+regaréis,
+regarán</t>
+  </si>
+  <si>
+    <t>regué,
+regaste,
+regó,
+regamos,
+regasteis,
+regaron</t>
+  </si>
+  <si>
+    <t>Seguir</t>
+  </si>
+  <si>
+    <t>Следовать</t>
+  </si>
+  <si>
+    <t>sigo,
+sigues,
+sigue,
+seguimos,
+seguís,
+siguen</t>
+  </si>
+  <si>
+    <t>he seguido,
+has seguido,
+ha seguido,
+hemos seguido,
+habéis seguido,
+han seguido</t>
+  </si>
+  <si>
+    <t>seguiré,
+seguirás,
+seguirá,
+seguiremos,
+seguiréis,
+seguirán</t>
+  </si>
+  <si>
+    <t>seguí,
+seguiste,
+siguió,
+seguimos,
+seguisteis,
+siguieron</t>
+  </si>
+  <si>
+    <t>Servir</t>
+  </si>
+  <si>
+    <t>Служить</t>
+  </si>
+  <si>
+    <t>sirvo,
+sirves,
+sirve,
+servimos,
+servís,
+sirven</t>
+  </si>
+  <si>
+    <t>he servido,
+has servido,
+ha servido,
+hemos servido,
+habéis servido,
+han servido</t>
+  </si>
+  <si>
+    <t>serviré,
+servirás,
+servirá,
+serviremos,
+serviréis,
+servirán</t>
+  </si>
+  <si>
+    <t>serví,
+serviste,
+sirvió,
+servimos,
+servisteis,
+sirvieron</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>звонить</t>
+  </si>
+  <si>
+    <t>sueno,
+suenas,
+suena,
+sonamos,
+sonáis,
+suenan</t>
+  </si>
+  <si>
+    <t>he sonado,
+has sonado,
+ha sonado,
+hemos sonado,
+habéis sonado,
+han sonado</t>
+  </si>
+  <si>
+    <t>sonaré,
+sonarás,
+sonará,
+sonaremos,
+sonaréis,
+sonarán</t>
+  </si>
+  <si>
+    <t>soné,
+sonaste,
+sonó,
+sonamos,
+sonasteis,
+sonaron</t>
+  </si>
+  <si>
+    <t>Traducir</t>
+  </si>
+  <si>
+    <t>переводить</t>
+  </si>
+  <si>
+    <t>traduzco,
+traduces,
+traduce,
+traducimos,
+traducís,
+traducen</t>
+  </si>
+  <si>
+    <t>he traducido,
+has traducido,
+ha traducido,
+hemos traducido,
+habéis traducido,
+han traducido</t>
+  </si>
+  <si>
+    <t>traduciré,
+traducirás,
+traducirá,
+traduciremos,
+traduciréis,
+traducirán</t>
+  </si>
+  <si>
+    <t>traduje,
+tradujiste,
+tradujo,
+tradujimos,
+tradujisteis,
+tradujeron</t>
+  </si>
+  <si>
+    <t>Vencer</t>
+  </si>
+  <si>
+    <t>побеждать</t>
+  </si>
+  <si>
+    <t>venzo,
+vences,
+vence,
+vencemos,
+vencéis,
+vencen</t>
+  </si>
+  <si>
+    <t>he vencido,
+has vencido,
+ha vencido,
+hemos vencido,
+habéis vencido,
+han vencido</t>
+  </si>
+  <si>
+    <t>venceré,
+vencerás,
+vencerá,
+venceremos,
+venceréis,
+vencerán</t>
+  </si>
+  <si>
+    <t>vencí,
+venciste,
+venció,
+vencimos,
+vencisteis,
+vencieron</t>
+  </si>
+  <si>
+    <t>Vestir</t>
+  </si>
+  <si>
+    <t>Одевать,одеваться</t>
+  </si>
+  <si>
+    <t>visto,
+vistes,
+viste,
+vestimos,
+vestís,
+visten</t>
+  </si>
+  <si>
+    <t>he vestido,
+has vestido,
+ha vestido,
+hemos vestido,
+habéis vestido,
+han vestido</t>
+  </si>
+  <si>
+    <t>vestiré,
+vestirás,
+vestirá,
+vestiremos,
+vestiréis,
+vestirán</t>
+  </si>
+  <si>
+    <t>vestí,
+vestiste,
+vistió,
+vestimos,
+vestisteis,
+vistieron</t>
+  </si>
+  <si>
+    <t>Volar</t>
+  </si>
+  <si>
+    <t>Летать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vuelo,
+vuelas,
+vuela,
+volamos,
+voláis,
+vuelan
+</t>
+  </si>
+  <si>
+    <t>he volado,
+has volado,
+ha volado,
+hemos volado,
+habéis volado,
+han volado</t>
+  </si>
+  <si>
+    <t>volaré,
+volarás,
+volará,
+volaremos,
+volaréis,
+volarán</t>
+  </si>
+  <si>
+    <t>volé,
+volaste,
+voló,
+volamos,
+volasteis,
+volaron</t>
+  </si>
+  <si>
+    <t>Voler</t>
+  </si>
+  <si>
+    <t>Становиться</t>
+  </si>
+  <si>
+    <t>vuelvo,
+vuelves,
+vuelve,
+volvemos,
+volvéis,
+vuelven</t>
+  </si>
+  <si>
+    <t>he vuelto,
+has vuelto,
+ha vuelto,
+hemos vuelto,
+habéis vuelto,
+han vuelto</t>
+  </si>
+  <si>
+    <t>volveré,
+volverás,
+volverá,
+volveremos,
+volveréis,
+volverán</t>
+  </si>
+  <si>
+    <t>volví,
+volviste,
+volvió,
+volvimos,
+volvisteis,
+volvieron</t>
+  </si>
+  <si>
+    <t>Volver</t>
+  </si>
+  <si>
+    <t>Возвращаться</t>
+  </si>
+  <si>
+    <t>Trasladar</t>
+  </si>
+  <si>
+    <t>Перемещать</t>
+  </si>
+  <si>
+    <t>traslado,
+trasladas,
+traslada,
+trasladamos,
+trasladáis,
+trasladan</t>
+  </si>
+  <si>
+    <t>he trasladado,
+has trasladado,
+ha trasladado,
+hemos trasladado,
+habéis trasladado,
+han trasladado</t>
+  </si>
+  <si>
+    <t>trasladaré,
+trasladarás,
+trasladará,
+trasladaremos,
+trasladaréis,
+trasladarán</t>
+  </si>
+  <si>
+    <t>trasladé,
+trasladaste,
+trasladó,
+trasladamos,
+trasladasteis,
+trasladaron</t>
   </si>
   <si>
     <t>familia,nouns</t>
@@ -761,7 +2213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -770,6 +2222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,15 +2701,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="29.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="32.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="16.9090909090909" customWidth="1"/>
@@ -1320,19 +2776,791 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="1"/>
+    <row r="4" ht="75" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="78" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="80" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="82" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="85" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="85" customHeight="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" ht="84" customHeight="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="83" customHeight="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" ht="80" customHeight="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="81" customHeight="1" spans="1:6">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" ht="84" customHeight="1" spans="1:6">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" ht="77" customHeight="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="86" customHeight="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" ht="89" customHeight="1" spans="1:6">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" ht="87" customHeight="1" spans="1:6">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1" spans="1:6">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" ht="77" customHeight="1" spans="1:6">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" ht="84" customHeight="1" spans="1:6">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" ht="83" customHeight="1" spans="1:6">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" ht="87" customHeight="1" spans="1:6">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" ht="84" customHeight="1" spans="1:6">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" ht="78" customHeight="1" spans="1:6">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" ht="95" customHeight="1" spans="1:6">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" ht="80" customHeight="1" spans="1:6">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" ht="80" customHeight="1" spans="1:6">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" ht="76" customHeight="1" spans="1:6">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" ht="82" customHeight="1" spans="1:6">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" ht="80" customHeight="1" spans="1:6">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" ht="75" customHeight="1" spans="1:6">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" ht="80" customHeight="1" spans="1:6">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" ht="81" customHeight="1" spans="1:6">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" ht="85" customHeight="1" spans="1:6">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" ht="87" customHeight="1" spans="1:6">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" ht="83" customHeight="1" spans="1:6">
+      <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" ht="78" customHeight="1" spans="1:6">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" ht="93" customHeight="1" spans="1:6">
+      <c r="A42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="6:6">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" customHeight="1" spans="6:6">
+      <c r="F44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1358,27 +3586,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/src/state/Domain/verbos.xlsx
+++ b/src/state/Domain/verbos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18040" windowHeight="11960"/>
+    <workbookView windowWidth="25600" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="573">
   <si>
     <t>Infinitvo</t>
   </si>
@@ -809,7 +809,7 @@
 escucharon</t>
   </si>
   <si>
-    <t>Oir</t>
+    <t>Oír</t>
   </si>
   <si>
     <t>Слышать</t>
@@ -1494,10 +1494,48 @@
 volaron</t>
   </si>
   <si>
-    <t>Voler</t>
+    <t>Convertir</t>
   </si>
   <si>
     <t>Становиться</t>
+  </si>
+  <si>
+    <t>convierto,
+conviertes,
+convierte,
+convertimos,
+convertís,
+convierten</t>
+  </si>
+  <si>
+    <t>he convertido,
+has convertido,
+ha convertido,
+hemos convertido,
+habéis convertido,
+han convertido</t>
+  </si>
+  <si>
+    <t>convertiré,
+convertirás,
+convertirá,
+convertiremos,
+convertiréis,
+convertirán</t>
+  </si>
+  <si>
+    <t>convertí,
+convertiste,
+convirtió,
+convertimos,
+convertisteis,
+convirtieron</t>
+  </si>
+  <si>
+    <t>Volver</t>
+  </si>
+  <si>
+    <t>Возвращаться</t>
   </si>
   <si>
     <t>vuelvo,
@@ -1532,12 +1570,6 @@
 volvieron</t>
   </si>
   <si>
-    <t>Volver</t>
-  </si>
-  <si>
-    <t>Возвращаться</t>
-  </si>
-  <si>
     <t>Trasladar</t>
   </si>
   <si>
@@ -1574,6 +1606,2013 @@
 trasladamos,
 trasladasteis,
 trasladaron</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Искать</t>
+  </si>
+  <si>
+    <t>busco,
+buscas,
+busca,
+buscamos,
+buscáis,
+buscan</t>
+  </si>
+  <si>
+    <t>he buscado,
+has buscado,
+ha buscado,
+hemos buscado,
+habéis buscado,
+han buscado</t>
+  </si>
+  <si>
+    <t>buscaré,
+buscarás,
+buscará,
+buscaremos,
+buscaréis,
+buscarán</t>
+  </si>
+  <si>
+    <t>busqué,
+buscaste,
+buscó,
+buscamos,
+buscasteis,
+buscaron</t>
+  </si>
+  <si>
+    <t>Nadar</t>
+  </si>
+  <si>
+    <t>Плавать</t>
+  </si>
+  <si>
+    <t>nado,
+nadas,
+nada,
+nadamos,
+nadáis,
+nadan</t>
+  </si>
+  <si>
+    <t>he nadado,
+has nadado,
+ha nadado,
+hemos nadado,
+habéis nadado,
+han nadado</t>
+  </si>
+  <si>
+    <t>nadaré,
+nadarás,
+nadará,
+nadaremos,
+nadaréis,
+nadarán</t>
+  </si>
+  <si>
+    <t>nadé,
+nadaste,
+nadó,
+nadamos,
+nadasteis,
+nadaron</t>
+  </si>
+  <si>
+    <t>Elegir</t>
+  </si>
+  <si>
+    <t>Выбирать</t>
+  </si>
+  <si>
+    <t>elijo,
+eliges,
+elige,
+elegimos,
+elegís,
+eligen</t>
+  </si>
+  <si>
+    <t>he elegido,
+has elegido,
+ha elegido,
+hemos elegido,
+habéis elegido,
+han elegido</t>
+  </si>
+  <si>
+    <t>elegiré,
+elegirás,
+elegirá,
+elegiremos,
+elegiréis,
+elegirán</t>
+  </si>
+  <si>
+    <t>elegí,
+elegiste,
+eligió,
+elegimos,
+elegisteis,
+eligieron</t>
+  </si>
+  <si>
+    <t>Esperar</t>
+  </si>
+  <si>
+    <t>Ждать</t>
+  </si>
+  <si>
+    <t>espero,
+esperas,
+espera,
+esperamos,
+esperáis,
+esperan</t>
+  </si>
+  <si>
+    <t>he esperado,
+has esperado,
+ha esperado,
+hemos esperado,
+habéis esperado,
+han esperado</t>
+  </si>
+  <si>
+    <t>esperaré,
+esperarás,
+esperará,
+esperaremos,
+esperaréis,
+esperarán</t>
+  </si>
+  <si>
+    <t>esperé,
+esperaste,
+esperó,
+esperamos,
+esperasteis,
+esperaron</t>
+  </si>
+  <si>
+    <t>Crear</t>
+  </si>
+  <si>
+    <t>Создавать</t>
+  </si>
+  <si>
+    <t>creo,
+creas,
+crea,
+creamos,
+creáis,
+crean</t>
+  </si>
+  <si>
+    <t>he creado,
+has creado,
+ha creado,
+hemos creado,
+habéis creado,
+han creado</t>
+  </si>
+  <si>
+    <t>crearé,
+crearás,
+creará,
+crearemos,
+crearéis,
+crearán</t>
+  </si>
+  <si>
+    <t>creé,
+creaste,
+creó,
+creamos,
+creasteis,
+crearon</t>
+  </si>
+  <si>
+    <t>Luchar</t>
+  </si>
+  <si>
+    <t>Бороться,драться</t>
+  </si>
+  <si>
+    <t>lucho,
+luchas,
+lucha,
+luchamos,
+lucháis,
+luchan</t>
+  </si>
+  <si>
+    <t>he luchado,
+has luchado,
+ha luchado,
+hemos luchado,
+habéis luchado,
+han luchado</t>
+  </si>
+  <si>
+    <t>lucharé,
+lucharás,
+luchará,
+lucharemos,
+lucharéis,
+lucharán</t>
+  </si>
+  <si>
+    <t>luché,
+luchaste,
+luchó,
+luchamos,
+luchasteis,
+lucharon</t>
+  </si>
+  <si>
+    <t>Tomar</t>
+  </si>
+  <si>
+    <t>Брать</t>
+  </si>
+  <si>
+    <t>tomo,
+tomas,
+toma,
+tomamos,
+tomáis,
+toman</t>
+  </si>
+  <si>
+    <t>he tomado,
+has tomado,
+ha tomado,
+hemos tomado,
+habéis tomado,
+han tomado</t>
+  </si>
+  <si>
+    <t>tomaré,
+tomarás,
+tomará,
+tomaremos,
+tomaréis,
+tomarán</t>
+  </si>
+  <si>
+    <t>tomé,
+tomaste,
+tomó,
+tomamos,
+tomasteis,
+tomaron</t>
+  </si>
+  <si>
+    <t>Enseñar</t>
+  </si>
+  <si>
+    <t>Обучать</t>
+  </si>
+  <si>
+    <t>enseño,
+enseñas,
+enseña,
+enseñamos,
+enseñáis,
+enseñan</t>
+  </si>
+  <si>
+    <t>he enseñado,
+has enseñado,
+ha enseñado,
+hemos enseñado,
+habéis enseñado,
+han enseñado</t>
+  </si>
+  <si>
+    <t>enseñaré,
+enseñarás,
+enseñará,
+enseñaremos,
+enseñaréis,
+enseñarán</t>
+  </si>
+  <si>
+    <t>enseñé,
+enseñaste,
+enseñó,
+enseñamos,
+enseñasteis,
+enseñaron</t>
+  </si>
+  <si>
+    <t>Decir</t>
+  </si>
+  <si>
+    <t>Сказать</t>
+  </si>
+  <si>
+    <t>digo,
+dices,
+dice,
+decimos,
+decís,
+dicen</t>
+  </si>
+  <si>
+    <t>he dicho,
+has dicho,
+ha dicho,
+hemos dicho,
+habéis dicho,
+han dicho</t>
+  </si>
+  <si>
+    <t>diré,
+dirás,
+dirá,
+diremos,
+diréis,
+dirán</t>
+  </si>
+  <si>
+    <t>dije,
+dijiste,
+dijo,
+dijimos,
+dijisteis,
+dijeron</t>
+  </si>
+  <si>
+    <t>Romper</t>
+  </si>
+  <si>
+    <t>Ломать</t>
+  </si>
+  <si>
+    <t>rompo,
+rompes,
+rompe,
+rompemos,
+rompéis,
+rompen</t>
+  </si>
+  <si>
+    <t>he roto,
+has roto,
+ha roto,
+hemos roto,
+habéis roto,
+han roto</t>
+  </si>
+  <si>
+    <t>romperé,
+romperás,
+romperá,
+romperemos,
+romperéis,
+romperán</t>
+  </si>
+  <si>
+    <t>rompí,
+rompiste,
+rompió,
+rompimos,
+rompisteis,
+rompieron</t>
+  </si>
+  <si>
+    <t>Permanecer</t>
+  </si>
+  <si>
+    <t>Останавливать,оставаться</t>
+  </si>
+  <si>
+    <t>permanezco,
+permaneces,
+permanece,
+permanecemos,
+permanecéis,
+permanecen</t>
+  </si>
+  <si>
+    <t>he permanecido,
+has permanecido,
+ha permanecido,
+hemos permanecido,
+habéis permanecido,
+han permanecido</t>
+  </si>
+  <si>
+    <t>permaneceré,
+permanecerás,
+permanecerá,
+permaneceremos,
+permaneceréis,
+permanecerán</t>
+  </si>
+  <si>
+    <t>permanecí,
+permaneciste,
+permaneció,
+permanecimos,
+permanecisteis,
+permanecieron</t>
+  </si>
+  <si>
+    <t>Deber</t>
+  </si>
+  <si>
+    <t>Должен</t>
+  </si>
+  <si>
+    <t>debo,
+debes,
+debe,
+debemos,
+debéis,
+deben</t>
+  </si>
+  <si>
+    <t>he debido,
+has debido,
+ha debido,
+hemos debido,
+habéis debido,
+han debido</t>
+  </si>
+  <si>
+    <t>deberé,
+deberás,
+deberá,
+deberemos,
+deberéis,
+deberán</t>
+  </si>
+  <si>
+    <t>debí,
+debiste,
+debió,
+debimos,
+debisteis,
+debieron</t>
+  </si>
+  <si>
+    <t>Preguntar</t>
+  </si>
+  <si>
+    <t>Спрашивать</t>
+  </si>
+  <si>
+    <t>pregunto,
+preguntas,
+pregunta,
+preguntamos,
+preguntáis,
+preguntan</t>
+  </si>
+  <si>
+    <t>he preguntado,
+has preguntado,
+ha preguntado,
+hemos preguntado,
+habéis preguntado,
+han preguntado</t>
+  </si>
+  <si>
+    <t>preguntaré,
+preguntarás,
+preguntará,
+preguntaremos,
+preguntaréis,
+preguntarán</t>
+  </si>
+  <si>
+    <t>pregunté,
+preguntaste,
+preguntó,
+preguntamos,
+preguntasteis,
+preguntaron</t>
+  </si>
+  <si>
+    <t>Tardar</t>
+  </si>
+  <si>
+    <t>Занимать,ждать</t>
+  </si>
+  <si>
+    <t>tardo,
+tardas,
+tarda,
+tardamos,
+tardáis,
+tardan</t>
+  </si>
+  <si>
+    <t>he tardado,
+has tardado,
+ha tardado,
+hemos tardado,
+habéis tardado,
+han tardado</t>
+  </si>
+  <si>
+    <t>tardaré,
+tardarás,
+tardará,
+tardaremos,
+tardaréis,
+tardarán</t>
+  </si>
+  <si>
+    <t>tardé,
+tardaste,
+tardó,
+tardamos,
+tardasteis,
+tardaron</t>
+  </si>
+  <si>
+    <t>Acabar</t>
+  </si>
+  <si>
+    <t>Заканчивать</t>
+  </si>
+  <si>
+    <t>acabo,
+acabas,
+acaba,
+acabamos,
+acabáis,
+acaban</t>
+  </si>
+  <si>
+    <t>he acabado,
+has acabado,
+ha acabado,
+hemos acabado,
+habéis acabado,
+han acabado</t>
+  </si>
+  <si>
+    <t>acabaré,
+acabarás,
+acabará,
+acabaremos,
+acabaréis,
+acabarán</t>
+  </si>
+  <si>
+    <t>acabé,
+acabaste,
+acabó,
+acabamos,
+acabasteis,
+acabaron</t>
+  </si>
+  <si>
+    <t>Traer</t>
+  </si>
+  <si>
+    <t>Приносить,привезти,вернуть</t>
+  </si>
+  <si>
+    <t>traigo,
+traes,
+trae,
+traemos,
+traéis,
+traen</t>
+  </si>
+  <si>
+    <t>he traído,
+has traído,
+ha traído,
+hemos traído,
+habéis traído,
+han traído</t>
+  </si>
+  <si>
+    <t>traeré,
+traerás,
+traerá,
+traeremos,
+traeréis,
+traerán</t>
+  </si>
+  <si>
+    <t>traje,
+trajiste,
+trajo,
+trajimos,
+trajisteis,
+trajeron</t>
+  </si>
+  <si>
+    <t>Dirigir</t>
+  </si>
+  <si>
+    <t>Управлять,руководить</t>
+  </si>
+  <si>
+    <t>dirijo,
+diriges,
+dirige,
+dirigimos,
+dirigís,
+dirigen</t>
+  </si>
+  <si>
+    <t>he dirigido,
+has dirigido,
+ha dirigido,
+hemos dirigido,
+habéis dirigido,
+han dirigido</t>
+  </si>
+  <si>
+    <t>dirigiré,
+dirigirás,
+dirigirá,
+dirigiremos,
+dirigiréis,
+dirigirán</t>
+  </si>
+  <si>
+    <t>dirigí,
+dirigiste,
+dirigió,
+dirigimos,
+dirigisteis,
+dirigieron</t>
+  </si>
+  <si>
+    <t>Gustar</t>
+  </si>
+  <si>
+    <t>Нравиться,любить</t>
+  </si>
+  <si>
+    <t>gusto,
+gustas,
+gusta,
+gustamos,
+gustáis,
+gustan</t>
+  </si>
+  <si>
+    <t>he gustado,
+has gustado,
+ha gustado,
+hemos gustado,
+habéis gustado,
+han gustado</t>
+  </si>
+  <si>
+    <t>gustaré,
+gustarás,
+gustará,
+gustaremos,
+gustaréis,
+gustarán</t>
+  </si>
+  <si>
+    <t>gusté,
+gustaste,
+gustó,
+gustamos,
+gustasteis,
+gustaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumplir </t>
+  </si>
+  <si>
+    <t>Соблюдать,выполнять,исполнить</t>
+  </si>
+  <si>
+    <t>cumplo,
+cumples,
+cumple,
+cumplimos,
+cumplís,
+cumplen</t>
+  </si>
+  <si>
+    <t>he cumplido,
+has cumplido,
+ha cumplido,
+hemos cumplido,
+habéis cumplido,
+han cumplido</t>
+  </si>
+  <si>
+    <t>cumpliré,
+cumplirás,
+cumplirá,
+cumpliremos,
+cumpliréis,
+cumplirán</t>
+  </si>
+  <si>
+    <t>cumplí,
+cumpliste,
+cumplió,
+cumplimos,
+cumplisteis,
+cumplieron</t>
+  </si>
+  <si>
+    <t>Intentar</t>
+  </si>
+  <si>
+    <t>Попробовать,попытаться</t>
+  </si>
+  <si>
+    <t>intento,
+intentas,
+intenta,
+intentamos,
+intentáis,
+intentan</t>
+  </si>
+  <si>
+    <t>he intentado,
+has intentado,
+ha intentado,
+hemos intentado,
+habéis intentado,
+han intentado</t>
+  </si>
+  <si>
+    <t>intentaré,
+intentarás,
+intentará,
+intentaremos,
+intentaréis,
+intentarán</t>
+  </si>
+  <si>
+    <t>intenté,
+intentaste,
+intentó,
+intentamos,
+intentasteis,
+intentaron</t>
+  </si>
+  <si>
+    <t>Usar</t>
+  </si>
+  <si>
+    <t>Использовать</t>
+  </si>
+  <si>
+    <t>uso,
+usas,
+usa,
+usamos,
+usáis,
+usan</t>
+  </si>
+  <si>
+    <t>he usado,
+has usado,
+ha usado,
+hemos usado,
+habéis usado,
+han usado</t>
+  </si>
+  <si>
+    <t>usaré,
+usarás,
+usará,
+usaremos,
+usaréis,
+usarán</t>
+  </si>
+  <si>
+    <t>usé,
+usaste,
+usó,
+usamos,
+usasteis,
+usaron</t>
+  </si>
+  <si>
+    <t>Llegar</t>
+  </si>
+  <si>
+    <t>Прибывать,приехать,добраться</t>
+  </si>
+  <si>
+    <t>llego,
+llegas,
+llega,
+llegamos,
+llegáis,
+llegan</t>
+  </si>
+  <si>
+    <t>he llegado,
+has llegado,
+ha llegado,
+hemos llegado,
+habéis llegado,
+han llegado</t>
+  </si>
+  <si>
+    <t>llegaré,
+llegarás,
+llegará,
+llegaremos,
+llegaréis,
+llegarán</t>
+  </si>
+  <si>
+    <t>llegué,
+llegaste,
+llegó,
+llegamos,
+llegasteis,
+llegaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creer </t>
+  </si>
+  <si>
+    <t>Верить,поверить</t>
+  </si>
+  <si>
+    <t>creo,
+crees,
+cree,
+creemos,
+creéis,
+creen</t>
+  </si>
+  <si>
+    <t>he creído,
+has creído,
+ha creído,
+hemos creído,
+habéis creído,
+han creído</t>
+  </si>
+  <si>
+    <t>creeré,
+creerás,
+creerá,
+creeremos,
+creeréis,
+creerán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creí,
+creíste,
+creyó,
+creímos,
+creísteis,
+creyeron
+</t>
+  </si>
+  <si>
+    <t>Ocurrir</t>
+  </si>
+  <si>
+    <t>Происходить</t>
+  </si>
+  <si>
+    <t>ocurro,
+ocurres,
+ocurre,
+ocurrimos,
+ocurrís,
+ocurren</t>
+  </si>
+  <si>
+    <t>he ocurrido,
+has ocurrido,
+ha ocurrido,
+hemos ocurrido,
+habéis ocurrido,
+han ocurrido</t>
+  </si>
+  <si>
+    <t>ocurriré,
+ocurrirás,
+ocurrirá,
+ocurriremos,
+ocurriréis,
+ocurrirán</t>
+  </si>
+  <si>
+    <t>ocurrí,
+ocurriste,
+ocurrió,
+ocurrimos,
+ocurristeis,
+ocurrieron</t>
+  </si>
+  <si>
+    <t>Entender</t>
+  </si>
+  <si>
+    <t>Понимать</t>
+  </si>
+  <si>
+    <t>entiendo,
+entiendes,
+entiende,
+entendemos,
+entendéis,
+entienden</t>
+  </si>
+  <si>
+    <t>he entendido,
+has entendido,
+ha entendido,
+hemos entendido,
+habéis entendido,
+han entendido</t>
+  </si>
+  <si>
+    <t>entenderé,
+entenderás,
+entenderá,
+entenderemos,
+entenderéis,
+entenderán</t>
+  </si>
+  <si>
+    <t>entendí,
+entendiste,
+entendió,
+entendimos,
+entendisteis,
+entendieron</t>
+  </si>
+  <si>
+    <t>Permitir</t>
+  </si>
+  <si>
+    <t>Позволять</t>
+  </si>
+  <si>
+    <t>permito,
+permites,
+permite,
+permitimos,
+permitís,
+permiten</t>
+  </si>
+  <si>
+    <t>he permitido,
+has permitido,
+ha permitido,
+hemos permitido,
+habéis permitido,
+han permitido</t>
+  </si>
+  <si>
+    <t>permitiré,
+permitirás,
+permitirá,
+permitiremos,
+permitiréis,
+permitirán</t>
+  </si>
+  <si>
+    <t>permití,
+permitiste,
+permitió,
+permitimos,
+permitisteis,
+permitieron</t>
+  </si>
+  <si>
+    <t>Sacar</t>
+  </si>
+  <si>
+    <t>Вынимать</t>
+  </si>
+  <si>
+    <t>saco,
+sacas,
+saca,
+sacamos,
+sacáis,
+sacan</t>
+  </si>
+  <si>
+    <t>he sacado,
+has sacado,
+ha sacado,
+hemos sacado,
+habéis sacado,
+han sacado</t>
+  </si>
+  <si>
+    <t>sacaré,
+sacarás,
+sacará,
+sacaremos,
+sacaréis,
+sacarán</t>
+  </si>
+  <si>
+    <t>saqué,
+sacaste,
+sacó,
+sacamos,
+sacasteis,
+sacaron</t>
+  </si>
+  <si>
+    <t>Suponer</t>
+  </si>
+  <si>
+    <t>Предполагать</t>
+  </si>
+  <si>
+    <t>supongo,
+supones,
+supone,
+suponemos,
+suponéis,
+suponen</t>
+  </si>
+  <si>
+    <t>he supuesto,
+has supuesto,
+ha supuesto,
+hemos supuesto,
+habéis supuesto,
+han supuesto</t>
+  </si>
+  <si>
+    <t>supondré,
+supondrás,
+supondrá,
+supondremos,
+supondréis,
+supondrán</t>
+  </si>
+  <si>
+    <t>supuse,
+supusiste,
+supuso,
+supusimos,
+supusisteis,
+supusieron</t>
+  </si>
+  <si>
+    <t>Explicar</t>
+  </si>
+  <si>
+    <t>Объяснять</t>
+  </si>
+  <si>
+    <t>explico,
+explicas,
+explica,
+explicamos,
+explicáis,
+explican</t>
+  </si>
+  <si>
+    <t>he explicado,
+has explicado,
+ha explicado,
+hemos explicado,
+habéis explicado,
+han explicado</t>
+  </si>
+  <si>
+    <t>explicaré,
+explicarás,
+explicará,
+explicaremos,
+explicaréis,
+explicarán</t>
+  </si>
+  <si>
+    <t>expliqué,
+explicaste,
+explicó,
+explicamos,
+explicasteis,
+explicaron</t>
+  </si>
+  <si>
+    <t>Tocar</t>
+  </si>
+  <si>
+    <t>трогать,играть на инструменте</t>
+  </si>
+  <si>
+    <t>toco,
+tocas,
+toca,
+tocamos,
+tocáis,
+tocan</t>
+  </si>
+  <si>
+    <t>he tocado,
+has tocado,
+ha tocado,
+hemos tocado,
+habéis tocado,
+han tocado</t>
+  </si>
+  <si>
+    <t>tocaré,
+tocarás,
+tocará,
+tocaremos,
+tocaréis,
+tocarán</t>
+  </si>
+  <si>
+    <t>toqué,
+tocaste,
+tocó,
+tocamos,
+tocasteis,
+tocaron</t>
+  </si>
+  <si>
+    <t>Ayudar</t>
+  </si>
+  <si>
+    <t>помогать</t>
+  </si>
+  <si>
+    <t>ayudo,
+ayudas,
+ayuda,
+ayudamos,
+ayudáis,
+ayudan</t>
+  </si>
+  <si>
+    <t>he ayudado,
+has ayudado,
+ha ayudado,
+hemos ayudado,
+habéis ayudado,
+han ayudado</t>
+  </si>
+  <si>
+    <t>ayudaré,
+ayudarás,
+ayudará,
+ayudaremos,
+ayudaréis,
+ayudarán</t>
+  </si>
+  <si>
+    <t>ayudé,
+ayudaste,
+ayudó,
+ayudamos,
+ayudasteis,
+ayudaron</t>
+  </si>
+  <si>
+    <t>Pedir</t>
+  </si>
+  <si>
+    <t>Просить</t>
+  </si>
+  <si>
+    <t>pido,
+pides,
+pide,
+pedimos,
+pedís,
+piden</t>
+  </si>
+  <si>
+    <t>he pedido,
+has pedido,
+ha pedido,
+hemos pedido,
+habéis pedido,
+han pedido</t>
+  </si>
+  <si>
+    <t>pediré,
+pedirás,
+pedirá,
+pediremos,
+pediréis,
+pedirán</t>
+  </si>
+  <si>
+    <t>pedí,
+pediste,
+pidió,
+pedimos,
+pedisteis,
+pidieron</t>
+  </si>
+  <si>
+    <t>Conducir</t>
+  </si>
+  <si>
+    <t>водить,водить машину</t>
+  </si>
+  <si>
+    <t>conduzco,
+conduces,
+conduce,
+conducimos,
+conducís,
+conducen</t>
+  </si>
+  <si>
+    <t>he conducido,
+has conducido,
+ha conducido,
+hemos conducido,
+habéis conducido,
+han conducido</t>
+  </si>
+  <si>
+    <t>conduciré,
+conducirás,
+conducirá,
+conduciremos,
+conduciréis,
+conducirán</t>
+  </si>
+  <si>
+    <t>conduje,
+condujiste,
+condujo,
+condujimos,
+condujisteis,
+condujeron</t>
+  </si>
+  <si>
+    <t>Incluir</t>
+  </si>
+  <si>
+    <t>Включать</t>
+  </si>
+  <si>
+    <t>incluyo,
+incluyes,
+incluye,
+incluimos,
+incluís,
+incluyen</t>
+  </si>
+  <si>
+    <t>he incluido,
+has incluido,
+ha incluido,
+hemos incluido,
+habéis incluido,
+han incluido</t>
+  </si>
+  <si>
+    <t>incluiré,
+incluirás,
+incluirá,
+incluiremos,
+incluiréis,
+incluirán</t>
+  </si>
+  <si>
+    <t>incluí,
+incluiste,
+incluyó,
+incluimos,
+incluisteis,
+incluyeron</t>
+  </si>
+  <si>
+    <t>Atraversar</t>
+  </si>
+  <si>
+    <t>Переходить</t>
+  </si>
+  <si>
+    <t>atravieso,
+atraviesas,
+atraviesa,
+atravesamos,
+atravesáis,
+atraviesan</t>
+  </si>
+  <si>
+    <t>he atravesado,
+has atravesado,
+ha atravesado,
+hemos atravesado,
+habéis atravesado,
+han atravesado</t>
+  </si>
+  <si>
+    <t>atravesaré,
+atravesarás,
+atravesará,
+atravesaremos,
+atravesaréis,
+atravesarán</t>
+  </si>
+  <si>
+    <t>atravesé,
+atravesaste,
+atravesó,
+atravesamos,
+atravesasteis,
+atravesaron</t>
+  </si>
+  <si>
+    <t>Tener</t>
+  </si>
+  <si>
+    <t>Иметь</t>
+  </si>
+  <si>
+    <t>tengo,
+tienes,
+tiene,
+tenemos,
+tenéis,
+tienen</t>
+  </si>
+  <si>
+    <t>he tenido,
+has tenido,
+ha tenido,
+hemos tenido,
+habéis tenido,
+han tenido</t>
+  </si>
+  <si>
+    <t>tendré,
+tendrás,
+tendrá,
+tendremos,
+tendréis,
+tendrán</t>
+  </si>
+  <si>
+    <t>tuve,
+tuviste,
+tuvo,
+tuvimos,
+tuvisteis,
+tuvieron</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Идти</t>
+  </si>
+  <si>
+    <t>voy,
+vas,
+va,
+vamos,
+vais,
+van</t>
+  </si>
+  <si>
+    <t>he ido,
+has ido,
+ha ido,
+hemos ido,
+habéis ido,
+han ido</t>
+  </si>
+  <si>
+    <t>iré,
+irás,
+irá,
+iremos,
+iréis,
+irán</t>
+  </si>
+  <si>
+    <t>fui,
+fuiste,
+fue,
+fuimos,
+fuisteis,
+fueron</t>
+  </si>
+  <si>
+    <t>Caer</t>
+  </si>
+  <si>
+    <t>Падать</t>
+  </si>
+  <si>
+    <t>caigo,
+caes,
+cae,
+caemos,
+caéis,
+caen</t>
+  </si>
+  <si>
+    <t>he caído,
+has caído,
+ha caído,
+hemos caído,
+habéis caído,
+han caído</t>
+  </si>
+  <si>
+    <t>caeré,
+caerás,
+caerá,
+caeremos,
+caeréis,
+caerán</t>
+  </si>
+  <si>
+    <t>caí,
+caíste,
+cayó,
+caímos,
+caísteis,
+cayeron</t>
+  </si>
+  <si>
+    <t>Correr</t>
+  </si>
+  <si>
+    <t>Бежать</t>
+  </si>
+  <si>
+    <t>corro,
+corres,
+corre,
+corremos,
+corréis,
+corren</t>
+  </si>
+  <si>
+    <t>he corrido,
+has corrido,
+ha corrido,
+hemos corrido,
+habéis corrido,
+han corrido</t>
+  </si>
+  <si>
+    <t>correré,
+correrás,
+correrá,
+correremos,
+correréis,
+correrán</t>
+  </si>
+  <si>
+    <t>corrí,
+corriste,
+corrió,
+corrimos,
+corristeis,
+corrieron</t>
+  </si>
+  <si>
+    <t>Dejar</t>
+  </si>
+  <si>
+    <t>Оставлять</t>
+  </si>
+  <si>
+    <t>dejo,
+dejas,
+deja,
+dejamos,
+dejáis,
+dejan</t>
+  </si>
+  <si>
+    <t>he dejado,
+has dejado,
+ha dejado,
+hemos dejado,
+habéis dejado,
+han dejado</t>
+  </si>
+  <si>
+    <t>dejaré,
+dejarás,
+dejará,
+dejaremos,
+dejaréis,
+dejarán</t>
+  </si>
+  <si>
+    <t>dejé,
+dejaste,
+dejó,
+dejamos,
+dejasteis,
+dejaron</t>
+  </si>
+  <si>
+    <t>Estudiar</t>
+  </si>
+  <si>
+    <t>Изучать</t>
+  </si>
+  <si>
+    <t>estudio,
+estudias,
+estudia,
+estudiamos,
+estudiáis,
+estudian</t>
+  </si>
+  <si>
+    <t>he estudiado,
+has estudiado,
+ha estudiado,
+hemos estudiado,
+habéis estudiado,
+han estudiado</t>
+  </si>
+  <si>
+    <t>estudiaré,
+estudiarás,
+estudiará,
+estudiaremos,
+estudiaréis,
+estudiarán</t>
+  </si>
+  <si>
+    <t>estudié,
+estudiaste,
+estudió,
+estudiamos,
+estudiasteis,
+estudiaron</t>
+  </si>
+  <si>
+    <t>Formar</t>
+  </si>
+  <si>
+    <t>Форматировать,зарабатывать</t>
+  </si>
+  <si>
+    <t>formo,
+formas,
+forma,
+formamos,
+formáis,
+forman</t>
+  </si>
+  <si>
+    <t>he formado,
+has formado,
+ha formado,
+hemos formado,
+habéis formado,
+han formado</t>
+  </si>
+  <si>
+    <t>formaré,
+formarás,
+formará,
+formaremos,
+formaréis,
+formarán</t>
+  </si>
+  <si>
+    <t>formé,
+formaste,
+formó,
+formamos,
+formasteis,
+formaron</t>
+  </si>
+  <si>
+    <t>Lograr</t>
+  </si>
+  <si>
+    <t>Добиваться</t>
+  </si>
+  <si>
+    <t>logro,
+logras,
+logra,
+logramos,
+lográis,
+logran</t>
+  </si>
+  <si>
+    <t>he logrado,
+has logrado,
+ha logrado,
+hemos logrado,
+habéis logrado,
+han logrado</t>
+  </si>
+  <si>
+    <t>lograré,
+lograrás,
+logrará,
+lograremos,
+lograréis,
+lograrán</t>
+  </si>
+  <si>
+    <t>logré,
+lograste,
+logró,
+logramos,
+lograsteis,
+lograron</t>
+  </si>
+  <si>
+    <t>Necesitar</t>
+  </si>
+  <si>
+    <t>Нуждаться</t>
+  </si>
+  <si>
+    <t>necesito,
+necesitas,
+necesita,
+necesitamos,
+necesitáis,
+necesitan</t>
+  </si>
+  <si>
+    <t>he necesitado,
+has necesitado,
+ha necesitado,
+hemos necesitado,
+habéis necesitado,
+han necesitado</t>
+  </si>
+  <si>
+    <t>necesitaré,
+necesitarás,
+necesitará,
+necesitaremos,
+necesitaréis,
+necesitarán</t>
+  </si>
+  <si>
+    <t>necesité,
+necesitaste,
+necesitó,
+necesitamos,
+necesitasteis,
+necesitaron</t>
+  </si>
+  <si>
+    <t>Perder</t>
+  </si>
+  <si>
+    <t>Терять</t>
+  </si>
+  <si>
+    <t>pierdo,
+pierdes,
+pierde,
+perdemos,
+perdéis,
+pierden</t>
+  </si>
+  <si>
+    <t>he perdido,
+has perdido,
+ha perdido,
+hemos perdido,
+habéis perdido,
+han perdido</t>
+  </si>
+  <si>
+    <t>perderé,
+perderás,
+perderá,
+perderemos,
+perderéis,
+perderán</t>
+  </si>
+  <si>
+    <t>perdí,
+perdiste,
+perdió,
+perdimos,
+perdisteis,
+perdieron</t>
+  </si>
+  <si>
+    <t>Poner</t>
+  </si>
+  <si>
+    <t>Поместить,положить</t>
+  </si>
+  <si>
+    <t>pongo,
+pones,
+pone,
+ponemos,
+ponéis,
+ponen</t>
+  </si>
+  <si>
+    <t>he puesto,
+has puesto,
+ha puesto,
+hemos puesto,
+habéis puesto,
+han puesto</t>
+  </si>
+  <si>
+    <t>pondré,
+pondrás,
+pondrá,
+pondremos,
+pondréis,
+pondrán</t>
+  </si>
+  <si>
+    <t>puse,
+pusiste,
+puso,
+pusimos,
+pusisteis,
+pusieron</t>
+  </si>
+  <si>
+    <t>Reconocer</t>
+  </si>
+  <si>
+    <t>Признавать</t>
+  </si>
+  <si>
+    <t>reconozco,
+reconoces,
+reconoce,
+reconocemos,
+reconocéis,
+reconocen</t>
+  </si>
+  <si>
+    <t>he reconocido,
+has reconocido,
+ha reconocido,
+hemos reconocido,
+habéis reconocido,
+han reconocido</t>
+  </si>
+  <si>
+    <t>reconoceré,
+reconocerás,
+reconocerá,
+reconoceremos,
+reconoceréis,
+reconocerán</t>
+  </si>
+  <si>
+    <t>reconocí,
+reconociste,
+reconoció,
+reconocimos,
+reconocisteis,
+reconocieron</t>
+  </si>
+  <si>
+    <t>Partir</t>
+  </si>
+  <si>
+    <t>делить,разделять</t>
+  </si>
+  <si>
+    <t>parto,
+partes,
+parte,
+partimos,
+partís,
+parten</t>
+  </si>
+  <si>
+    <t>he partido,
+has partido,
+ha partido,
+hemos partido,
+habéis partido,
+han partido</t>
+  </si>
+  <si>
+    <t>partiré,
+partirás,
+partirá,
+partiremos,
+partiréis,
+partirán</t>
+  </si>
+  <si>
+    <t>partí,
+partiste,
+partió,
+partimos,
+partisteis,
+partieron</t>
+  </si>
+  <si>
+    <t>Pasar</t>
+  </si>
+  <si>
+    <t>Проходить,перемещать</t>
+  </si>
+  <si>
+    <t>paso,
+pasas,
+pasa,
+pasamos,
+pasáis,
+pasan</t>
+  </si>
+  <si>
+    <t>he pasado,
+has pasado,
+ha pasado,
+hemos pasado,
+habéis pasado,
+han pasado</t>
+  </si>
+  <si>
+    <t>pasaré,
+pasarás,
+pasará,
+pasaremos,
+pasaréis,
+pasarán</t>
+  </si>
+  <si>
+    <t>pasé,
+pasaste,
+pasó,
+pasamos,
+pasasteis,
+pasaron</t>
+  </si>
+  <si>
+    <t>Mantener</t>
+  </si>
+  <si>
+    <t>Поддерживать</t>
+  </si>
+  <si>
+    <t>mantengo,
+mantienes,
+mantiene,
+mantenemos,
+mantenéis,
+mantienen</t>
+  </si>
+  <si>
+    <t>he mantenido,
+has mantenido,
+ha mantenido,
+hemos mantenido,
+habéis mantenido,
+han mantenido</t>
+  </si>
+  <si>
+    <t>mantendré,
+mantendrás,
+mantendrá,
+mantendremos,
+mantendréis,
+mantendrán</t>
+  </si>
+  <si>
+    <t>mantuve,
+mantuviste,
+mantuvo,
+mantuvimos,
+mantuvisteis,
+mantuvieron</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Быть</t>
+  </si>
+  <si>
+    <t>soy,
+eres,
+es,
+somos,
+sois,
+son</t>
+  </si>
+  <si>
+    <t>he sido,
+has sido,
+ha sido,
+hemos sido,
+habéis sido,
+han sido</t>
+  </si>
+  <si>
+    <t>seré,
+serás,
+será,
+seremos,
+seréis,
+serán</t>
+  </si>
+  <si>
+    <t>Comparar</t>
+  </si>
+  <si>
+    <t>Сравнивать</t>
+  </si>
+  <si>
+    <t>comparo,
+comparas,
+compara,
+comparamos,
+comparáis,
+comparan</t>
+  </si>
+  <si>
+    <t>he comparado,
+has comparado,
+ha comparado,
+hemos comparado,
+habéis comparado,
+han comparado</t>
+  </si>
+  <si>
+    <t>compararé,
+compararás,
+comparará,
+compararemos,
+compararéis,
+compararán</t>
+  </si>
+  <si>
+    <t>comparé,
+comparaste,
+comparó,
+comparamos,
+comparasteis,
+compararon</t>
+  </si>
+  <si>
+    <t>Oler</t>
+  </si>
+  <si>
+    <t>Пахнуть</t>
+  </si>
+  <si>
+    <t>huelo,
+hueles,
+huele,
+olemos,
+oléis,
+huelen</t>
+  </si>
+  <si>
+    <t>he olido,
+has olido,
+ha olido,
+hemos olido,
+habéis olido,
+han olido</t>
+  </si>
+  <si>
+    <t>oleré,
+olerás,
+olerá,
+oleremos,
+oleréis,
+olerán</t>
+  </si>
+  <si>
+    <t>olí,
+oliste,
+olió,
+olimos,
+olisteis,
+olieron</t>
   </si>
   <si>
     <t>familia,nouns</t>
@@ -2213,7 +4252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2225,7 +4264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2701,15 +4739,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="29.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="31.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="32.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="16.9090909090909" customWidth="1"/>
@@ -3524,43 +5562,1097 @@
         <v>241</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" ht="93" customHeight="1" spans="1:6">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="6:6">
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" customHeight="1" spans="6:6">
-      <c r="F44" s="5"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" ht="81" customHeight="1" spans="1:6">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" ht="84" customHeight="1" spans="1:6">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" ht="81" customHeight="1" spans="1:6">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" ht="88" customHeight="1" spans="1:6">
+      <c r="A46" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" ht="78" customHeight="1" spans="1:6">
+      <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" ht="81" customHeight="1" spans="1:6">
+      <c r="A48" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" ht="76" customHeight="1" spans="1:6">
+      <c r="A49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" ht="80" customHeight="1" spans="1:6">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" ht="83" customHeight="1" spans="1:6">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" ht="76" customHeight="1" spans="1:6">
+      <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" ht="83" customHeight="1" spans="1:6">
+      <c r="A53" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" ht="79" customHeight="1" spans="1:6">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" ht="83" customHeight="1" spans="1:6">
+      <c r="A55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" ht="80" customHeight="1" spans="1:6">
+      <c r="A56" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" ht="80" customHeight="1" spans="1:6">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" ht="79" customHeight="1" spans="1:6">
+      <c r="A58" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" ht="83" customHeight="1" spans="1:6">
+      <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" ht="79" customHeight="1" spans="1:6">
+      <c r="A60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" ht="75" customHeight="1" spans="1:6">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" ht="80" customHeight="1" spans="1:6">
+      <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" ht="80" customHeight="1" spans="1:6">
+      <c r="A63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" ht="85" customHeight="1" spans="1:6">
+      <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s">
+        <v>379</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" ht="93" customHeight="1" spans="1:6">
+      <c r="A65" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" t="s">
+        <v>385</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" ht="78" customHeight="1" spans="1:6">
+      <c r="A66" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" ht="77" customHeight="1" spans="1:6">
+      <c r="A67" t="s">
+        <v>396</v>
+      </c>
+      <c r="B67" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" ht="79" customHeight="1" spans="1:6">
+      <c r="A68" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" ht="76" customHeight="1" spans="1:6">
+      <c r="A69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" t="s">
+        <v>409</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" ht="87" customHeight="1" spans="1:6">
+      <c r="A70" t="s">
+        <v>414</v>
+      </c>
+      <c r="B70" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" ht="75" customHeight="1" spans="1:6">
+      <c r="A71" t="s">
+        <v>420</v>
+      </c>
+      <c r="B71" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" ht="81" customHeight="1" spans="1:6">
+      <c r="A72" t="s">
+        <v>426</v>
+      </c>
+      <c r="B72" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" ht="82" customHeight="1" spans="1:6">
+      <c r="A73" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" t="s">
+        <v>433</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" ht="77" customHeight="1" spans="1:6">
+      <c r="A74" t="s">
+        <v>438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" ht="80" customHeight="1" spans="1:6">
+      <c r="A75" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" t="s">
+        <v>445</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" ht="77" customHeight="1" spans="1:6">
+      <c r="A76" t="s">
+        <v>450</v>
+      </c>
+      <c r="B76" t="s">
+        <v>451</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" ht="77" customHeight="1" spans="1:6">
+      <c r="A77" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" ht="82" customHeight="1" spans="1:6">
+      <c r="A78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B78" t="s">
+        <v>463</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" ht="84" customHeight="1" spans="1:6">
+      <c r="A79" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" ht="83" customHeight="1" spans="1:6">
+      <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" ht="76" customHeight="1" spans="1:6">
+      <c r="A81" t="s">
+        <v>480</v>
+      </c>
+      <c r="B81" t="s">
+        <v>481</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" ht="79" customHeight="1" spans="1:6">
+      <c r="A82" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" t="s">
+        <v>487</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" ht="76" customHeight="1" spans="1:6">
+      <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83" t="s">
+        <v>493</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" ht="78" customHeight="1" spans="1:6">
+      <c r="A84" t="s">
+        <v>498</v>
+      </c>
+      <c r="B84" t="s">
+        <v>499</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" ht="79" customHeight="1" spans="1:6">
+      <c r="A85" t="s">
+        <v>504</v>
+      </c>
+      <c r="B85" t="s">
+        <v>505</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" ht="76" customHeight="1" spans="1:6">
+      <c r="A86" t="s">
+        <v>510</v>
+      </c>
+      <c r="B86" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87" ht="79" customHeight="1" spans="1:6">
+      <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
+        <v>517</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" ht="81" customHeight="1" spans="1:6">
+      <c r="A88" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" t="s">
+        <v>523</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" ht="76" customHeight="1" spans="1:6">
+      <c r="A89" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" t="s">
+        <v>529</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" ht="76" customHeight="1" spans="1:6">
+      <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
+        <v>535</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" ht="83" customHeight="1" spans="1:6">
+      <c r="A91" t="s">
+        <v>540</v>
+      </c>
+      <c r="B91" t="s">
+        <v>541</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" ht="75" customHeight="1" spans="1:6">
+      <c r="A92" t="s">
+        <v>546</v>
+      </c>
+      <c r="B92" t="s">
+        <v>547</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" ht="77" customHeight="1" spans="1:6">
+      <c r="A93" t="s">
+        <v>552</v>
+      </c>
+      <c r="B93" t="s">
+        <v>553</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" ht="80" customHeight="1" spans="1:6">
+      <c r="A94" t="s">
+        <v>557</v>
+      </c>
+      <c r="B94" t="s">
+        <v>558</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" ht="77" customHeight="1" spans="1:6">
+      <c r="A95" t="s">
+        <v>563</v>
+      </c>
+      <c r="B95" t="s">
+        <v>564</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3586,27 +6678,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>569</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>570</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>571</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/src/state/Domain/verbos.xlsx
+++ b/src/state/Domain/verbos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12000"/>
+    <workbookView windowWidth="21000" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="782">
   <si>
     <t>Infinitvo</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Pretérito perfecto simple (Indefinido)</t>
+  </si>
+  <si>
+    <t>Gerundio</t>
   </si>
   <si>
     <t>Estar</t>
@@ -3613,6 +3616,1234 @@
 olimos,
 olisteis,
 olieron</t>
+  </si>
+  <si>
+    <t>Obrar</t>
+  </si>
+  <si>
+    <t>Действовать,поступать,творить,работать</t>
+  </si>
+  <si>
+    <t>obro,
+obras,
+obra,
+obramos,
+obráis,
+obran</t>
+  </si>
+  <si>
+    <t>he obrado,
+has obrado,
+ha obrado,
+hemos obrado,
+habéis obrado,
+han obrado</t>
+  </si>
+  <si>
+    <t>obraré,
+obrarás,
+obrará,
+obraremos,
+obraréis,
+obrarán</t>
+  </si>
+  <si>
+    <t>obré,
+obraste,
+obró,
+obramos,
+obrasteis,
+obraron</t>
+  </si>
+  <si>
+    <t>obrando</t>
+  </si>
+  <si>
+    <t>Vengar</t>
+  </si>
+  <si>
+    <t>Отомстить,мстить</t>
+  </si>
+  <si>
+    <t>vengo,
+vengas,
+venga,
+vengamos,
+vengáis,
+vengan</t>
+  </si>
+  <si>
+    <t>he vengado,
+has vengado,
+ha vengado,
+hemos vengado,
+habéis vengado,
+han vengado</t>
+  </si>
+  <si>
+    <t>vengaré,
+vengarás,
+vengará,
+vengaremos,
+vengaréis,
+vengarán</t>
+  </si>
+  <si>
+    <t>vengué,
+vengaste,
+vengó,
+vengamos,
+vengasteis,
+vengaron</t>
+  </si>
+  <si>
+    <t>vengando</t>
+  </si>
+  <si>
+    <t>Ligar</t>
+  </si>
+  <si>
+    <t>Связать,подцепить,привязать</t>
+  </si>
+  <si>
+    <t>ligo,
+ligas,
+liga,
+ligamos,
+ligáis,
+ligan</t>
+  </si>
+  <si>
+    <t>he ligado,
+has ligado,
+ha ligado,
+hemos ligado,
+habéis ligado,
+han ligado</t>
+  </si>
+  <si>
+    <t>ligaré,
+ligarás,
+ligará,
+ligaremos,
+ligaréis,
+ligarán</t>
+  </si>
+  <si>
+    <t>ligué,
+ligaste,
+ligó,
+ligamos,
+ligasteis,
+ligaron</t>
+  </si>
+  <si>
+    <t>ligando</t>
+  </si>
+  <si>
+    <t>Basar</t>
+  </si>
+  <si>
+    <t>Строить,основывать,обосновать,опираться</t>
+  </si>
+  <si>
+    <t>baso,
+basas,
+basa,
+basamos,
+basáis,
+basan</t>
+  </si>
+  <si>
+    <t>he basado,
+has basado,
+ha basado,
+hemos basado,
+habéis basado,
+han basado</t>
+  </si>
+  <si>
+    <t>basaré,
+basarás,
+basará,
+basaremos,
+basaréis,
+basarán</t>
+  </si>
+  <si>
+    <t>basé,
+basaste,
+basó,
+basamos,
+basasteis,
+basaron</t>
+  </si>
+  <si>
+    <t>basando</t>
+  </si>
+  <si>
+    <t>Pegar</t>
+  </si>
+  <si>
+    <t>Бить,вставить,ударить,вставлять</t>
+  </si>
+  <si>
+    <t>pego,
+pegas,
+pega,
+pegamos,
+pegáis,
+pegan</t>
+  </si>
+  <si>
+    <t>he pegado,
+has pegado,
+ha pegado,
+hemos pegado,
+habéis pegado,
+han pegado</t>
+  </si>
+  <si>
+    <t>pegaré,
+pegarás,
+pegará,
+pegaremos,
+pegaréis,
+pegarán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pegué,
+pegaste,
+pegó,
+pegamos,
+pegasteis,
+pegaron
+</t>
+  </si>
+  <si>
+    <t>pegando</t>
+  </si>
+  <si>
+    <t>Despejar</t>
+  </si>
+  <si>
+    <t>Очистить,освободить,убрать,развеять</t>
+  </si>
+  <si>
+    <t>despejo,
+despejas,
+despeja,
+despejamos,
+despejáis,
+despejan</t>
+  </si>
+  <si>
+    <t>he despejado,
+has despejado,
+ha despejado,
+hemos despejado,
+habéis despejado,
+han despejado</t>
+  </si>
+  <si>
+    <t>despejaré,
+despejarás,
+despejará,
+despejaremos,
+despejaréis,
+despejarán</t>
+  </si>
+  <si>
+    <t>despejé,
+despejaste,
+despejó,
+despejamos,
+despejasteis,
+despejaron</t>
+  </si>
+  <si>
+    <t>despejando</t>
+  </si>
+  <si>
+    <t>Doler</t>
+  </si>
+  <si>
+    <t>Болеть,повредить,ранить</t>
+  </si>
+  <si>
+    <t>duelo,
+dueles,
+duele,
+dolemos,
+doléis,
+duelen</t>
+  </si>
+  <si>
+    <t>he dolido,
+has dolido,
+ha dolido,
+hemos dolido,
+habéis dolido,
+han dolido</t>
+  </si>
+  <si>
+    <t>doleré,
+dolerás,
+dolerá,
+doleremos,
+doleréis,
+dolerán</t>
+  </si>
+  <si>
+    <t>dolí,
+doliste,
+dolió,
+dolimos,
+dolisteis,
+dolieron</t>
+  </si>
+  <si>
+    <t>doliendo</t>
+  </si>
+  <si>
+    <t>Posponer</t>
+  </si>
+  <si>
+    <t>Отложить,отсрочить,перенести</t>
+  </si>
+  <si>
+    <t>pospongo,
+pospones,
+pospone,
+posponemos,
+posponéis,
+posponen</t>
+  </si>
+  <si>
+    <t>he pospuesto,
+has pospuesto,
+ha pospuesto,
+hemos pospuesto,
+habéis pospuesto,
+han pospuesto</t>
+  </si>
+  <si>
+    <t>pospondré,
+pospondrás,
+pospondrá,
+pospondremos,
+pospondréis,
+pospondrán</t>
+  </si>
+  <si>
+    <t>pospuse,
+pospusiste,
+pospuso,
+pospusimos,
+pospusisteis,
+pospusieron</t>
+  </si>
+  <si>
+    <t>posponiendo</t>
+  </si>
+  <si>
+    <t>Mecer</t>
+  </si>
+  <si>
+    <t>Качать,раскачивать</t>
+  </si>
+  <si>
+    <t>mezo,
+meces,
+mece,
+mecemos,
+mecéis,
+mecen</t>
+  </si>
+  <si>
+    <t>he mecido,
+has mecido,
+ha mecido,
+hemos mecido,
+habéis mecido,
+han mecido</t>
+  </si>
+  <si>
+    <t>meceré,
+mecerás,
+mecerá,
+meceremos,
+meceréis,
+mecerán</t>
+  </si>
+  <si>
+    <t>mecí,
+meciste,
+meció,
+mecimos,
+mecisteis,
+mecieron</t>
+  </si>
+  <si>
+    <t>meciendo</t>
+  </si>
+  <si>
+    <t>Hacer</t>
+  </si>
+  <si>
+    <t>Делать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hago,
+haces,
+hace,
+hacemos,
+hacéis,
+hacen
+</t>
+  </si>
+  <si>
+    <t>he hecho,
+has hecho,
+ha hecho,
+hemos hecho,
+habéis hecho,
+han hecho</t>
+  </si>
+  <si>
+    <t>haré,
+harás,
+hará,
+haremos,
+haréis,
+harán</t>
+  </si>
+  <si>
+    <t>hice,
+hiciste,
+hizo,
+hicimos,
+hicisteis,
+hicieron</t>
+  </si>
+  <si>
+    <t>haciendo</t>
+  </si>
+  <si>
+    <t>Haber</t>
+  </si>
+  <si>
+    <t>he,
+has,
+ha,
+hemos,
+habéis,
+han</t>
+  </si>
+  <si>
+    <t>he habido,
+has habido,
+ha habido,
+hemos habido,
+habéis habido,
+han habido</t>
+  </si>
+  <si>
+    <t>habré,
+habrás,
+habrá,
+habremos,
+habréis,
+habrán</t>
+  </si>
+  <si>
+    <t>hube,
+hubiste,
+hubo,
+hubimos,
+hubisteis,
+hubieron</t>
+  </si>
+  <si>
+    <t>habiendo</t>
+  </si>
+  <si>
+    <t>Venir</t>
+  </si>
+  <si>
+    <t>Придти,приехать,приходить</t>
+  </si>
+  <si>
+    <t>vengo,
+vienes,
+viene,
+venimos,
+venís,
+vienen</t>
+  </si>
+  <si>
+    <t>he venido,
+has venido,
+ha venido,
+hemos venido,
+habéis venido,
+han venido</t>
+  </si>
+  <si>
+    <t>vendré,
+vendrás,
+vendrá,
+vendremos,
+vendréis,
+vendrán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vine,
+viniste,
+vino,
+vinimos,
+vinisteis,
+vinieron
+</t>
+  </si>
+  <si>
+    <t>viniendo</t>
+  </si>
+  <si>
+    <t>Recibir</t>
+  </si>
+  <si>
+    <t>Получать</t>
+  </si>
+  <si>
+    <t>recibo,
+recibes,
+recibe,
+recibimos,
+recibís,
+reciben</t>
+  </si>
+  <si>
+    <t>he recibido,
+has recibido,
+ha recibido,
+hemos recibido,
+habéis recibido,
+han recibido</t>
+  </si>
+  <si>
+    <t>recibiré,
+recibirás,
+recibirá,
+recibiremos,
+recibiréis,
+recibirán</t>
+  </si>
+  <si>
+    <t>recibí,
+recibiste,
+recibió,
+recibimos,
+recibisteis,
+recibieron</t>
+  </si>
+  <si>
+    <t>recibiendo</t>
+  </si>
+  <si>
+    <t>llamar</t>
+  </si>
+  <si>
+    <t>Звать</t>
+  </si>
+  <si>
+    <t>llamo,
+llamas,
+llama,
+llamamos,
+llamáis,
+llaman</t>
+  </si>
+  <si>
+    <t>he llamado,
+has llamado,
+ha llamado,
+hemos llamado,
+habéis llamado,
+han llamado</t>
+  </si>
+  <si>
+    <t>llamaré,
+llamarás,
+llamará,
+llamaremos,
+llamaréis,
+llamarán</t>
+  </si>
+  <si>
+    <t>llamé,
+llamaste,
+llamó,
+llamamos,
+llamasteis,
+llamaron</t>
+  </si>
+  <si>
+    <t>llamando</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
+  </si>
+  <si>
+    <t>Принимать</t>
+  </si>
+  <si>
+    <t>acepto,
+aceptas,
+acepta,
+aceptamos,
+aceptáis,
+aceptan</t>
+  </si>
+  <si>
+    <t>he aceptado,
+has aceptado,
+ha aceptado,
+hemos aceptado,
+habéis aceptado,
+han aceptado</t>
+  </si>
+  <si>
+    <t>aceptaré,
+aceptarás,
+aceptará,
+aceptaremos,
+aceptaréis,
+aceptarán</t>
+  </si>
+  <si>
+    <t>acepté,
+aceptaste,
+aceptó,
+aceptamos,
+aceptasteis,
+aceptaron</t>
+  </si>
+  <si>
+    <t>aceptando</t>
+  </si>
+  <si>
+    <t>Cansar</t>
+  </si>
+  <si>
+    <t>Уставать</t>
+  </si>
+  <si>
+    <t>canso,
+cansas,
+cansa,
+cansamos,
+cansáis,
+cansan</t>
+  </si>
+  <si>
+    <t>he cansado,
+has cansado,
+ha cansado,
+hemos cansado,
+habéis cansado,
+han cansado</t>
+  </si>
+  <si>
+    <t>cansaré,
+cansarás,
+cansará,
+cansaremos,
+cansaréis,
+cansarán</t>
+  </si>
+  <si>
+    <t>cansé,
+cansaste,
+cansó,
+cansamos,
+cansasteis,
+cansaron</t>
+  </si>
+  <si>
+    <t>cansando</t>
+  </si>
+  <si>
+    <t>Mover</t>
+  </si>
+  <si>
+    <t>Двигать</t>
+  </si>
+  <si>
+    <t>muevo,
+mueves,
+mueve,
+movemos,
+movéis,
+mueven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he movido,
+has movido,
+ha movido,
+hemos movido,
+habéis movido,
+han movido
+</t>
+  </si>
+  <si>
+    <t>moveré,
+moverás,
+moverá,
+moveremos,
+moveréis,
+moverán</t>
+  </si>
+  <si>
+    <t>moví,
+moviste,
+movió,
+movimos,
+movisteis,
+movieron</t>
+  </si>
+  <si>
+    <t>moviendo</t>
+  </si>
+  <si>
+    <t>Aumentar</t>
+  </si>
+  <si>
+    <t>Увеличивать,повысить,усилить</t>
+  </si>
+  <si>
+    <t>aumento,
+aumentas,
+aumenta,
+aumentamos,
+aumentáis,
+aumentan</t>
+  </si>
+  <si>
+    <t>he aumentado,
+has aumentado,
+ha aumentado,
+hemos aumentado,
+habéis aumentado,
+han aumentado</t>
+  </si>
+  <si>
+    <t>aumentaré,
+aumentarás,
+aumentará,
+aumentaremos,
+aumentaréis,
+aumentarán</t>
+  </si>
+  <si>
+    <t>aumenté,
+aumentaste,
+aumentó,
+aumentamos,
+aumentasteis,
+aumentaron</t>
+  </si>
+  <si>
+    <t>aumentando</t>
+  </si>
+  <si>
+    <t>Incrementar</t>
+  </si>
+  <si>
+    <t>Увеличить,повысить,усилить</t>
+  </si>
+  <si>
+    <t>incremento,
+incrementas,
+incrementa,
+incrementamos,
+incrementáis,
+incrementan</t>
+  </si>
+  <si>
+    <t>he incrementado,
+has incrementado,
+ha incrementado,
+hemos incrementado,
+habéis incrementado,
+han incrementado</t>
+  </si>
+  <si>
+    <t>incrementaré,
+incrementarás,
+incrementará,
+incrementaremos,
+incrementaréis,
+incrementarán</t>
+  </si>
+  <si>
+    <t>incrementé,
+incrementaste,
+incrementó,
+incrementamos,
+incrementasteis,
+incrementaron</t>
+  </si>
+  <si>
+    <t>incrementando</t>
+  </si>
+  <si>
+    <t>Reducir</t>
+  </si>
+  <si>
+    <t>Уменьшать,снижать,сокращать</t>
+  </si>
+  <si>
+    <t>reduzco,
+reduces,
+reduce,
+reducimos,
+reducís,
+reducen</t>
+  </si>
+  <si>
+    <t>he reducido,
+has reducido,
+ha reducido,
+hemos reducido,
+habéis reducido,
+han reducido</t>
+  </si>
+  <si>
+    <t>reduciré,
+reducirás,
+reducirá,
+reduciremos,
+reduciréis,
+reducirán</t>
+  </si>
+  <si>
+    <t>reduje,
+redujiste,
+redujo,
+redujimos,
+redujisteis,
+redujeron</t>
+  </si>
+  <si>
+    <t>reduciendo</t>
+  </si>
+  <si>
+    <t>Disminuir</t>
+  </si>
+  <si>
+    <t>disminuyo,
+disminuyes,
+disminuye,
+disminuimos,
+disminuís,
+disminuyen</t>
+  </si>
+  <si>
+    <t>he disminuido,
+has disminuido,
+ha disminuido,
+hemos disminuido,
+habéis disminuido,
+han disminuido</t>
+  </si>
+  <si>
+    <t>disminuiré,
+disminuirás,
+disminuirá,
+disminuiremos,
+disminuiréis,
+disminuirán</t>
+  </si>
+  <si>
+    <t>disminuí,
+disminuiste,
+disminuyó,
+disminuimos,
+disminuisteis,
+disminuyeron</t>
+  </si>
+  <si>
+    <t>disminuyendo</t>
+  </si>
+  <si>
+    <t>Llorar</t>
+  </si>
+  <si>
+    <t>Плакать</t>
+  </si>
+  <si>
+    <t>lloro,
+lloras,
+llora,
+lloramos,
+lloráis,
+lloran</t>
+  </si>
+  <si>
+    <t>he llorado,
+has llorado,
+ha llorado,
+hemos llorado,
+habéis llorado,
+han llorado</t>
+  </si>
+  <si>
+    <t>lloraré,
+llorarás,
+llorará,
+lloraremos,
+lloraréis,
+llorarán</t>
+  </si>
+  <si>
+    <t>lloré,
+lloraste,
+lloró,
+lloramos,
+llorasteis,
+lloraron</t>
+  </si>
+  <si>
+    <t>llorando</t>
+  </si>
+  <si>
+    <t>Alabar</t>
+  </si>
+  <si>
+    <t>Хвалить</t>
+  </si>
+  <si>
+    <t>alabo,
+alabas,
+alaba,
+alabamos,
+alabáis,
+alaban</t>
+  </si>
+  <si>
+    <t>he alabado,
+has alabado,
+ha alabado,
+hemos alabado,
+habéis alabado,
+han alabado</t>
+  </si>
+  <si>
+    <t>alabaré,
+alabarás,
+alabará,
+alabaremos,
+alabaréis,
+alabarán</t>
+  </si>
+  <si>
+    <t>alabé,
+alabaste,
+alabó,
+alabamos,
+alabasteis,
+alabaron</t>
+  </si>
+  <si>
+    <t>alabando</t>
+  </si>
+  <si>
+    <t>Determinar</t>
+  </si>
+  <si>
+    <t>Определить,узнать</t>
+  </si>
+  <si>
+    <t>determino,
+determinas,
+determina,
+determinamos,
+determináis,
+determinan</t>
+  </si>
+  <si>
+    <t>he determinado,
+has determinado,
+ha determinado,
+hemos determinado,
+habéis determinado,
+han determinado</t>
+  </si>
+  <si>
+    <t>determinaré,
+determinarás,
+determinará,
+determinaremos,
+determinaréis,
+determinarán</t>
+  </si>
+  <si>
+    <t>determiné,
+determinaste,
+determinó,
+determinamos,
+determinasteis,
+determinaron</t>
+  </si>
+  <si>
+    <t>determinando</t>
+  </si>
+  <si>
+    <t>Defenir</t>
+  </si>
+  <si>
+    <t>Определить</t>
+  </si>
+  <si>
+    <t>defino,
+defines,
+define,
+definimos,
+definís,
+definen</t>
+  </si>
+  <si>
+    <t>he definido,
+has definido,
+ha definido,
+hemos definido,
+habéis definido,
+han definido</t>
+  </si>
+  <si>
+    <t>definiré,
+definirás,
+definirá,
+definiremos,
+definiréis,
+definirán</t>
+  </si>
+  <si>
+    <t>definí,
+definiste,
+definió,
+definimos,
+definisteis,
+definieron</t>
+  </si>
+  <si>
+    <t>definiendo</t>
+  </si>
+  <si>
+    <t>Sentir</t>
+  </si>
+  <si>
+    <t>Чувствовать,ощущать,ощутить</t>
+  </si>
+  <si>
+    <t>siento,
+sientes,
+siente,
+sentimos,
+sentís,
+sienten</t>
+  </si>
+  <si>
+    <t>he sentido,
+has sentido,
+ha sentido,
+hemos sentido,
+habéis sentido,
+han sentido</t>
+  </si>
+  <si>
+    <t>sentiré,
+sentirás,
+sentirá,
+sentiremos,
+sentiréis,
+sentirán</t>
+  </si>
+  <si>
+    <t>sentí,
+sentiste,
+sintió,
+sentimos,
+sentisteis,
+sintieron</t>
+  </si>
+  <si>
+    <t>sintiendo</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>Избегать</t>
+  </si>
+  <si>
+    <t>evito,
+evitas,
+evita,
+evitamos,
+evitáis,
+evitan</t>
+  </si>
+  <si>
+    <t>he evitado,
+has evitado,
+ha evitado,
+hemos evitado,
+habéis evitado,
+han evitado</t>
+  </si>
+  <si>
+    <t>evitaré,
+evitarás,
+evitará,
+evitaremos,
+evitaréis,
+evitarán</t>
+  </si>
+  <si>
+    <t>evité,
+evitaste,
+evitó,
+evitamos,
+evitasteis,
+evitaron</t>
+  </si>
+  <si>
+    <t>evitando</t>
+  </si>
+  <si>
+    <t>Cometer</t>
+  </si>
+  <si>
+    <t>Совершить,допустить</t>
+  </si>
+  <si>
+    <t>cometo,
+cometes,
+comete,
+cometemos,
+cometéis,
+cometen</t>
+  </si>
+  <si>
+    <t>he cometido,
+has cometido,
+ha cometido,
+hemos cometido,
+habéis cometido,
+han cometido</t>
+  </si>
+  <si>
+    <t>cometeré,
+cometerás,
+cometerá,
+cometeremos,
+cometeréis,
+cometerán</t>
+  </si>
+  <si>
+    <t>cometí,
+cometiste,
+cometió,
+cometimos,
+cometisteis,
+cometieron</t>
+  </si>
+  <si>
+    <t>cometiendo</t>
+  </si>
+  <si>
+    <t>Predecir</t>
+  </si>
+  <si>
+    <t>Предсказывать</t>
+  </si>
+  <si>
+    <t>predigo,
+predices,
+predice,
+predecimos,
+predís,
+predicen</t>
+  </si>
+  <si>
+    <t>he predicho,
+has predicho,
+ha predicho,
+hemos predicho,
+habéis predicho,
+han predicho</t>
+  </si>
+  <si>
+    <t>prediré,
+predirás,
+predirá,
+prediremos,
+prediréis,
+predirán</t>
+  </si>
+  <si>
+    <t>predije,
+predijiste,
+predijo,
+predijimos,
+predijisteis,
+predijeron</t>
+  </si>
+  <si>
+    <t>prediciendo</t>
+  </si>
+  <si>
+    <t>Bucear</t>
+  </si>
+  <si>
+    <t>Нырять</t>
+  </si>
+  <si>
+    <t>buceo,
+buceas,
+bucea,
+buceamos,
+buceáis,
+bucean</t>
+  </si>
+  <si>
+    <t>he buceado,
+has buceado,
+ha buceado,
+hemos buceado,
+habéis buceado,
+han buceado</t>
+  </si>
+  <si>
+    <t>bucearé,
+bucearás,
+buceará,
+bucearemos,
+bucearéis,
+bucearán</t>
+  </si>
+  <si>
+    <t>buceé,
+buceaste,
+buceó,
+buceamos,
+buceasteis,
+bucearon</t>
+  </si>
+  <si>
+    <t>buceando</t>
   </si>
   <si>
     <t>familia,nouns</t>
@@ -3637,7 +4868,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3651,6 +4882,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.65"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4107,31 +5344,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4140,119 +5374,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4264,6 +5501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4739,22 +5977,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="31.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="37.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="32.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="16.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="29.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4773,1885 +6011,2578 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="91" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="78" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="80" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="82" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="85" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="85" customHeight="1" spans="1:6">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="84" customHeight="1" spans="1:6">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="80" customHeight="1" spans="1:6">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="83" customHeight="1" spans="1:6">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:6">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="80" customHeight="1" spans="1:6">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="81" customHeight="1" spans="1:6">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="84" customHeight="1" spans="1:6">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="77" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" ht="86" customHeight="1" spans="1:6">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="89" customHeight="1" spans="1:6">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:6">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" ht="80" customHeight="1" spans="1:6">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="77" customHeight="1" spans="1:6">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:6">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" ht="83" customHeight="1" spans="1:6">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="87" customHeight="1" spans="1:6">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="84" customHeight="1" spans="1:6">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:6">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" ht="95" customHeight="1" spans="1:6">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" ht="80" customHeight="1" spans="1:6">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" ht="80" customHeight="1" spans="1:6">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" ht="76" customHeight="1" spans="1:6">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" ht="82" customHeight="1" spans="1:6">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" ht="80" customHeight="1" spans="1:6">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:6">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" ht="80" customHeight="1" spans="1:6">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" ht="81" customHeight="1" spans="1:6">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" ht="85" customHeight="1" spans="1:6">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" ht="87" customHeight="1" spans="1:6">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" ht="83" customHeight="1" spans="1:6">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" ht="78" customHeight="1" spans="1:6">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" ht="93" customHeight="1" spans="1:6">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" ht="81" customHeight="1" spans="1:6">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" ht="84" customHeight="1" spans="1:6">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" ht="81" customHeight="1" spans="1:6">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" ht="88" customHeight="1" spans="1:6">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:6">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" ht="81" customHeight="1" spans="1:6">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" ht="76" customHeight="1" spans="1:6">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" ht="80" customHeight="1" spans="1:6">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" ht="83" customHeight="1" spans="1:6">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" ht="76" customHeight="1" spans="1:6">
       <c r="A52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" ht="83" customHeight="1" spans="1:6">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" ht="79" customHeight="1" spans="1:6">
       <c r="A54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" ht="83" customHeight="1" spans="1:6">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" ht="80" customHeight="1" spans="1:6">
       <c r="A56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" ht="80" customHeight="1" spans="1:6">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" ht="79" customHeight="1" spans="1:6">
       <c r="A58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" ht="83" customHeight="1" spans="1:6">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="79" customHeight="1" spans="1:6">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" ht="75" customHeight="1" spans="1:6">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" ht="80" customHeight="1" spans="1:6">
       <c r="A62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" ht="80" customHeight="1" spans="1:6">
       <c r="A63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" ht="85" customHeight="1" spans="1:6">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" ht="93" customHeight="1" spans="1:6">
       <c r="A65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" ht="78" customHeight="1" spans="1:6">
       <c r="A66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" ht="77" customHeight="1" spans="1:6">
       <c r="A67" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" ht="79" customHeight="1" spans="1:6">
       <c r="A68" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" ht="76" customHeight="1" spans="1:6">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" ht="87" customHeight="1" spans="1:6">
       <c r="A70" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" ht="75" customHeight="1" spans="1:6">
       <c r="A71" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" ht="81" customHeight="1" spans="1:6">
       <c r="A72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" ht="82" customHeight="1" spans="1:6">
       <c r="A73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" ht="77" customHeight="1" spans="1:6">
       <c r="A74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" ht="80" customHeight="1" spans="1:6">
       <c r="A75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" ht="77" customHeight="1" spans="1:6">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" ht="77" customHeight="1" spans="1:6">
       <c r="A77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" ht="82" customHeight="1" spans="1:6">
       <c r="A78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" ht="84" customHeight="1" spans="1:6">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" ht="83" customHeight="1" spans="1:6">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" ht="76" customHeight="1" spans="1:6">
       <c r="A81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" ht="79" customHeight="1" spans="1:6">
       <c r="A82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" ht="76" customHeight="1" spans="1:6">
       <c r="A83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B83" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" ht="78" customHeight="1" spans="1:6">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" ht="79" customHeight="1" spans="1:6">
       <c r="A85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" ht="76" customHeight="1" spans="1:6">
       <c r="A86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" ht="79" customHeight="1" spans="1:6">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" ht="81" customHeight="1" spans="1:6">
       <c r="A88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" ht="76" customHeight="1" spans="1:6">
       <c r="A89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" ht="76" customHeight="1" spans="1:6">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" ht="83" customHeight="1" spans="1:6">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" ht="75" customHeight="1" spans="1:6">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" ht="77" customHeight="1" spans="1:6">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" ht="80" customHeight="1" spans="1:6">
       <c r="A94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" ht="77" customHeight="1" spans="1:6">
       <c r="A95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="96" ht="80" customHeight="1" spans="1:7">
+      <c r="A96" t="s">
+        <v>570</v>
+      </c>
+      <c r="B96" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G96" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97" ht="79" customHeight="1" spans="1:7">
+      <c r="A97" t="s">
+        <v>577</v>
+      </c>
+      <c r="B97" t="s">
+        <v>578</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" ht="83" customHeight="1" spans="1:7">
+      <c r="A98" t="s">
+        <v>584</v>
+      </c>
+      <c r="B98" t="s">
+        <v>585</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G98" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" ht="76" customHeight="1" spans="1:7">
+      <c r="A99" t="s">
+        <v>591</v>
+      </c>
+      <c r="B99" t="s">
+        <v>592</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G99" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100" ht="72" customHeight="1" spans="1:7">
+      <c r="A100" t="s">
+        <v>598</v>
+      </c>
+      <c r="B100" t="s">
+        <v>599</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G100" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="101" ht="77" customHeight="1" spans="1:7">
+      <c r="A101" t="s">
+        <v>605</v>
+      </c>
+      <c r="B101" t="s">
+        <v>606</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G101" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" ht="80" customHeight="1" spans="1:7">
+      <c r="A102" t="s">
+        <v>612</v>
+      </c>
+      <c r="B102" t="s">
+        <v>613</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G102" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="103" ht="77" customHeight="1" spans="1:7">
+      <c r="A103" t="s">
+        <v>619</v>
+      </c>
+      <c r="B103" t="s">
+        <v>620</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G103" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="104" ht="75" customHeight="1" spans="1:7">
+      <c r="A104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B104" t="s">
+        <v>627</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G104" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="105" ht="89" customHeight="1" spans="1:7">
+      <c r="A105" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" t="s">
+        <v>634</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G105" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="106" ht="75" customHeight="1" spans="1:7">
+      <c r="A106" t="s">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s">
+        <v>464</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G106" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="107" ht="80" customHeight="1" spans="1:7">
+      <c r="A107" t="s">
+        <v>646</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G107" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108" ht="76" customHeight="1" spans="1:7">
+      <c r="A108" t="s">
+        <v>653</v>
+      </c>
+      <c r="B108" t="s">
+        <v>654</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G108" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" ht="81" customHeight="1" spans="1:7">
+      <c r="A109" t="s">
+        <v>660</v>
+      </c>
+      <c r="B109" t="s">
+        <v>661</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G109" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="110" ht="85" customHeight="1" spans="1:7">
+      <c r="A110" t="s">
+        <v>667</v>
+      </c>
+      <c r="B110" t="s">
+        <v>668</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G110" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="111" ht="81" customHeight="1" spans="1:7">
+      <c r="A111" t="s">
+        <v>674</v>
+      </c>
+      <c r="B111" t="s">
+        <v>675</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G111" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="112" ht="83" customHeight="1" spans="1:7">
+      <c r="A112" t="s">
+        <v>681</v>
+      </c>
+      <c r="B112" t="s">
+        <v>682</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G112" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="113" ht="77" customHeight="1" spans="1:7">
+      <c r="A113" t="s">
+        <v>688</v>
+      </c>
+      <c r="B113" t="s">
+        <v>689</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G113" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="114" ht="79" customHeight="1" spans="1:7">
+      <c r="A114" t="s">
+        <v>695</v>
+      </c>
+      <c r="B114" t="s">
+        <v>696</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G114" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="115" ht="83" customHeight="1" spans="1:7">
+      <c r="A115" t="s">
+        <v>702</v>
+      </c>
+      <c r="B115" t="s">
+        <v>703</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G115" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" ht="78" customHeight="1" spans="1:7">
+      <c r="A116" t="s">
+        <v>709</v>
+      </c>
+      <c r="B116" t="s">
+        <v>703</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G116" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="117" ht="79" customHeight="1" spans="1:7">
+      <c r="A117" t="s">
+        <v>715</v>
+      </c>
+      <c r="B117" t="s">
+        <v>716</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G117" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="118" ht="80" customHeight="1" spans="1:7">
+      <c r="A118" t="s">
+        <v>722</v>
+      </c>
+      <c r="B118" t="s">
+        <v>723</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G118" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="119" ht="85" customHeight="1" spans="1:7">
+      <c r="A119" t="s">
+        <v>729</v>
+      </c>
+      <c r="B119" t="s">
+        <v>730</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G119" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="120" ht="82" customHeight="1" spans="1:7">
+      <c r="A120" t="s">
+        <v>736</v>
+      </c>
+      <c r="B120" t="s">
+        <v>737</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G120" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" ht="81" customHeight="1" spans="1:7">
+      <c r="A121" t="s">
+        <v>743</v>
+      </c>
+      <c r="B121" t="s">
+        <v>744</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G121" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="122" ht="80" customHeight="1" spans="1:7">
+      <c r="A122" t="s">
+        <v>750</v>
+      </c>
+      <c r="B122" t="s">
+        <v>751</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="G122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="123" ht="78" customHeight="1" spans="1:7">
+      <c r="A123" t="s">
+        <v>757</v>
+      </c>
+      <c r="B123" t="s">
+        <v>758</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G123" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" ht="76" customHeight="1" spans="1:7">
+      <c r="A124" t="s">
+        <v>764</v>
+      </c>
+      <c r="B124" t="s">
+        <v>765</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="G124" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="125" ht="83" customHeight="1" spans="1:7">
+      <c r="A125" t="s">
+        <v>771</v>
+      </c>
+      <c r="B125" t="s">
+        <v>772</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G125" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -6678,27 +8609,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>569</v>
+        <v>778</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>570</v>
+        <v>779</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>571</v>
+        <v>780</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>572</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/src/state/Domain/verbos.xlsx
+++ b/src/state/Domain/verbos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11400"/>
+    <workbookView windowWidth="25600" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="797">
   <si>
     <t>Infinitvo</t>
   </si>
@@ -89,6 +89,9 @@
 estuvieron</t>
   </si>
   <si>
+    <t>Estando</t>
+  </si>
+  <si>
     <t>Agradecer</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
 agradecieron</t>
   </si>
   <si>
+    <t>Agradeciendo</t>
+  </si>
+  <si>
     <t>Aparecer</t>
   </si>
   <si>
@@ -165,6 +171,9 @@
 aparecieron</t>
   </si>
   <si>
+    <t>Apareciendo</t>
+  </si>
+  <si>
     <t>Aprender</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
 aprendieron</t>
   </si>
   <si>
+    <t>Aprendiendo</t>
+  </si>
+  <si>
     <t>Alojar</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
 alojaron</t>
   </si>
   <si>
+    <t>Alojando</t>
+  </si>
+  <si>
     <t>Comer</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
 comieron</t>
   </si>
   <si>
+    <t>cometiendo</t>
+  </si>
+  <si>
     <t>Conocer</t>
   </si>
   <si>
@@ -317,6 +335,9 @@
 conocieron</t>
   </si>
   <si>
+    <t>Conociendo</t>
+  </si>
+  <si>
     <t>Conseguir</t>
   </si>
   <si>
@@ -355,6 +376,9 @@
 consiguieron</t>
   </si>
   <si>
+    <t>Consiguiendo</t>
+  </si>
+  <si>
     <t>Construir</t>
   </si>
   <si>
@@ -393,6 +417,9 @@
 construyeron</t>
   </si>
   <si>
+    <t>Construyendo</t>
+  </si>
+  <si>
     <t>Conectar</t>
   </si>
   <si>
@@ -431,6 +458,9 @@
 conectaron</t>
   </si>
   <si>
+    <t>Conectando</t>
+  </si>
+  <si>
     <t>Defender</t>
   </si>
   <si>
@@ -469,6 +499,9 @@
 defendieron</t>
   </si>
   <si>
+    <t>Defendiendo</t>
+  </si>
+  <si>
     <t>Deletrear</t>
   </si>
   <si>
@@ -507,6 +540,9 @@
 deletrearon</t>
   </si>
   <si>
+    <t>Deletreando</t>
+  </si>
+  <si>
     <t>despedir</t>
   </si>
   <si>
@@ -545,6 +581,9 @@
 despidieron</t>
   </si>
   <si>
+    <t>Despidiendo</t>
+  </si>
+  <si>
     <t>despertar</t>
   </si>
   <si>
@@ -583,6 +622,9 @@
 despertaron</t>
   </si>
   <si>
+    <t>Despertando</t>
+  </si>
+  <si>
     <t>Destruir</t>
   </si>
   <si>
@@ -621,6 +663,9 @@
 destruyeron</t>
   </si>
   <si>
+    <t>Destruyendo</t>
+  </si>
+  <si>
     <t>Dividir</t>
   </si>
   <si>
@@ -657,6 +702,9 @@
 dividimos,
 dividisteis,
 dividieron</t>
+  </si>
+  <si>
+    <t>Dividiendo</t>
   </si>
   <si>
     <t>Divertir</t>
@@ -4759,9 +4807,6 @@
 cometimos,
 cometisteis,
 cometieron</t>
-  </si>
-  <si>
-    <t>cometiendo</t>
   </si>
   <si>
     <t>Predecir</t>
@@ -5979,8 +6024,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -6015,7 +6060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="76" customHeight="1" spans="1:6">
+    <row r="2" ht="76" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6034,2555 +6079,2603 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="91" customHeight="1" spans="1:6">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="91" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="75" customHeight="1" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="78" customHeight="1" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="78" customHeight="1" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="80" customHeight="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="80" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="81" customHeight="1" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="82" customHeight="1" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="82" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="85" customHeight="1" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="85" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="85" customHeight="1" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" ht="85" customHeight="1" spans="1:7">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" ht="84" customHeight="1" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="84" customHeight="1" spans="1:7">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" ht="80" customHeight="1" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1" spans="1:7">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" ht="83" customHeight="1" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="83" customHeight="1" spans="1:7">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" ht="79" customHeight="1" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="1:7">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" ht="80" customHeight="1" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="80" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" ht="81" customHeight="1" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" ht="81" customHeight="1" spans="1:7">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" ht="84" customHeight="1" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" ht="84" customHeight="1" spans="1:7">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" ht="77" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" ht="86" customHeight="1" spans="1:6">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="89" customHeight="1" spans="1:6">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:6">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" ht="80" customHeight="1" spans="1:6">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="77" customHeight="1" spans="1:6">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:6">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" ht="83" customHeight="1" spans="1:6">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" ht="87" customHeight="1" spans="1:6">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" ht="84" customHeight="1" spans="1:6">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:6">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" ht="95" customHeight="1" spans="1:6">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" ht="80" customHeight="1" spans="1:6">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" ht="80" customHeight="1" spans="1:6">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" ht="76" customHeight="1" spans="1:6">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" ht="82" customHeight="1" spans="1:6">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" ht="80" customHeight="1" spans="1:6">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:6">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" ht="80" customHeight="1" spans="1:6">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" ht="81" customHeight="1" spans="1:6">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" ht="85" customHeight="1" spans="1:6">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" ht="87" customHeight="1" spans="1:6">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" ht="83" customHeight="1" spans="1:6">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" ht="78" customHeight="1" spans="1:6">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" ht="93" customHeight="1" spans="1:6">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" ht="81" customHeight="1" spans="1:6">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" ht="84" customHeight="1" spans="1:6">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" ht="81" customHeight="1" spans="1:6">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" ht="88" customHeight="1" spans="1:6">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:6">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" ht="81" customHeight="1" spans="1:6">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" ht="76" customHeight="1" spans="1:6">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" ht="80" customHeight="1" spans="1:6">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" ht="83" customHeight="1" spans="1:6">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" ht="76" customHeight="1" spans="1:6">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" ht="83" customHeight="1" spans="1:6">
       <c r="A53" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" ht="79" customHeight="1" spans="1:6">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" ht="83" customHeight="1" spans="1:6">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" ht="80" customHeight="1" spans="1:6">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" ht="80" customHeight="1" spans="1:6">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" ht="79" customHeight="1" spans="1:6">
       <c r="A58" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" ht="83" customHeight="1" spans="1:6">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" ht="79" customHeight="1" spans="1:6">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" ht="75" customHeight="1" spans="1:6">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" ht="80" customHeight="1" spans="1:6">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" ht="80" customHeight="1" spans="1:6">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" ht="85" customHeight="1" spans="1:6">
       <c r="A64" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" ht="93" customHeight="1" spans="1:6">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" ht="78" customHeight="1" spans="1:6">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" ht="77" customHeight="1" spans="1:6">
       <c r="A67" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" ht="79" customHeight="1" spans="1:6">
       <c r="A68" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" ht="76" customHeight="1" spans="1:6">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" ht="87" customHeight="1" spans="1:6">
       <c r="A70" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" ht="75" customHeight="1" spans="1:6">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" ht="81" customHeight="1" spans="1:6">
       <c r="A72" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" ht="82" customHeight="1" spans="1:6">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" ht="77" customHeight="1" spans="1:6">
       <c r="A74" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" ht="80" customHeight="1" spans="1:6">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" ht="77" customHeight="1" spans="1:6">
       <c r="A76" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" ht="77" customHeight="1" spans="1:6">
       <c r="A77" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" ht="82" customHeight="1" spans="1:6">
       <c r="A78" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" ht="84" customHeight="1" spans="1:6">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" ht="83" customHeight="1" spans="1:6">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" ht="76" customHeight="1" spans="1:6">
       <c r="A81" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B81" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" ht="79" customHeight="1" spans="1:6">
       <c r="A82" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" ht="76" customHeight="1" spans="1:6">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" ht="78" customHeight="1" spans="1:6">
       <c r="A84" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" ht="79" customHeight="1" spans="1:6">
       <c r="A85" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" ht="76" customHeight="1" spans="1:6">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" ht="79" customHeight="1" spans="1:6">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" ht="81" customHeight="1" spans="1:6">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="B88" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" ht="76" customHeight="1" spans="1:6">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" ht="76" customHeight="1" spans="1:6">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" ht="83" customHeight="1" spans="1:6">
       <c r="A91" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" ht="75" customHeight="1" spans="1:6">
       <c r="A92" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" ht="77" customHeight="1" spans="1:6">
       <c r="A93" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" ht="80" customHeight="1" spans="1:6">
       <c r="A94" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" ht="77" customHeight="1" spans="1:6">
       <c r="A95" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" ht="80" customHeight="1" spans="1:7">
       <c r="A96" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="G96" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" ht="79" customHeight="1" spans="1:7">
       <c r="A97" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B97" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="G97" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" ht="83" customHeight="1" spans="1:7">
       <c r="A98" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="G98" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="99" ht="76" customHeight="1" spans="1:7">
       <c r="A99" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="G99" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" ht="72" customHeight="1" spans="1:7">
       <c r="A100" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="B100" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G100" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101" ht="77" customHeight="1" spans="1:7">
       <c r="A101" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="G101" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" ht="80" customHeight="1" spans="1:7">
       <c r="A102" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B102" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="G102" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" ht="77" customHeight="1" spans="1:7">
       <c r="A103" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B103" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="G103" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" ht="75" customHeight="1" spans="1:7">
       <c r="A104" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B104" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="G104" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" ht="89" customHeight="1" spans="1:7">
       <c r="A105" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B105" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="G105" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" ht="75" customHeight="1" spans="1:7">
       <c r="A106" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B106" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="G106" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107" ht="80" customHeight="1" spans="1:7">
       <c r="A107" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="G107" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="108" ht="76" customHeight="1" spans="1:7">
       <c r="A108" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="B108" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="G108" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" ht="81" customHeight="1" spans="1:7">
       <c r="A109" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B109" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="G109" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" ht="85" customHeight="1" spans="1:7">
       <c r="A110" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="B110" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G110" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" ht="81" customHeight="1" spans="1:7">
       <c r="A111" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="B111" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="G111" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" ht="83" customHeight="1" spans="1:7">
       <c r="A112" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="B112" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="G112" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
     </row>
     <row r="113" ht="77" customHeight="1" spans="1:7">
       <c r="A113" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="B113" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="G113" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" ht="79" customHeight="1" spans="1:7">
       <c r="A114" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="B114" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G114" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="115" ht="83" customHeight="1" spans="1:7">
       <c r="A115" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="B115" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="G115" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" ht="78" customHeight="1" spans="1:7">
       <c r="A116" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="B116" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="G116" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" ht="79" customHeight="1" spans="1:7">
       <c r="A117" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="B117" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="G117" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" ht="80" customHeight="1" spans="1:7">
       <c r="A118" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="B118" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="G118" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" ht="85" customHeight="1" spans="1:7">
       <c r="A119" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="B119" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="G119" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
     </row>
     <row r="120" ht="82" customHeight="1" spans="1:7">
       <c r="A120" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B120" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="G120" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
     </row>
     <row r="121" ht="81" customHeight="1" spans="1:7">
       <c r="A121" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="B121" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="G121" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="122" ht="80" customHeight="1" spans="1:7">
       <c r="A122" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B122" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="G122" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" ht="78" customHeight="1" spans="1:7">
       <c r="A123" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="B123" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="G123" t="s">
-        <v>763</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" ht="76" customHeight="1" spans="1:7">
       <c r="A124" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="B124" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G124" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
     </row>
     <row r="125" ht="83" customHeight="1" spans="1:7">
       <c r="A125" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="B125" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="G125" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -8609,27 +8702,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
